--- a/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
+++ b/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\GitHub\RTP\projlist\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2B836-E8C0-4D41-ADC2-B61A829DE709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="285" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Constrained - Arterial Lin" sheetId="1" r:id="rId1"/>
@@ -298,22 +304,33 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="12" hidden="1">'Transit Constrained'!$4:$4</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="13" hidden="1">'Transit Illustrative'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Lane County - Personal View" guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="705" tabRatio="742" activeSheetId="5"/>
+    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
     <customWorkbookView name="THOMPSON Paul E - Personal View" guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" tabRatio="742" activeSheetId="1"/>
-    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
-    <customWorkbookView name="Lane County - Personal View" guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="705" tabRatio="742" activeSheetId="5"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CLARKE Kelly A</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -351,12 +368,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CLARKE Kelly A</author>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -386,12 +403,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CLARKE Kelly A</author>
   </authors>
   <commentList>
-    <comment ref="C31" authorId="0">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -423,12 +440,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CLARKE Kelly A</author>
   </authors>
   <commentList>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0">
+    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K46" authorId="0">
+    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -505,12 +522,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CLARKE Kelly A</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -540,12 +557,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CLARKE Kelly A</author>
   </authors>
   <commentList>
-    <comment ref="N14" authorId="0">
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -574,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1244">
   <si>
     <t>Name</t>
   </si>
@@ -4532,21 +4549,6 @@
     <t>PB6. Cost estimated using PB-18</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Estimated Cost (2016) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>$- cost indicates project cost is included in another project in the RTP</t>
-    </r>
-  </si>
-  <si>
     <t>* Italicized construction year windows need to be confirmed by Eugene</t>
   </si>
   <si>
@@ -4567,12 +4569,15 @@
   <si>
     <t>Springfield TSP 
 #US-15</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -4582,7 +4587,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4894,13 +4899,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6657,6 +6655,21 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6716,40 +6729,28 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="9"/>
+    <cellStyle name="Comma 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="5"/>
+    <cellStyle name="Currency 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 2 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6798,7 +6799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6831,9 +6832,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6866,6 +6884,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7041,7 +7076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="15"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7049,7 +7084,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7073,38 +7108,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="527" t="s">
+      <c r="A1" s="532" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="527"/>
-      <c r="C1" s="527"/>
-      <c r="D1" s="527"/>
-      <c r="E1" s="527"/>
-      <c r="F1" s="527"/>
-      <c r="G1" s="527"/>
-      <c r="H1" s="527"/>
-      <c r="I1" s="527"/>
-      <c r="J1" s="527"/>
-      <c r="K1" s="527"/>
-      <c r="L1" s="527"/>
+      <c r="B1" s="532"/>
+      <c r="C1" s="532"/>
+      <c r="D1" s="532"/>
+      <c r="E1" s="532"/>
+      <c r="F1" s="532"/>
+      <c r="G1" s="532"/>
+      <c r="H1" s="532"/>
+      <c r="I1" s="532"/>
+      <c r="J1" s="532"/>
+      <c r="K1" s="532"/>
+      <c r="L1" s="532"/>
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="528" t="s">
+      <c r="A2" s="533" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="528"/>
-      <c r="C2" s="528"/>
-      <c r="D2" s="528"/>
-      <c r="E2" s="528"/>
-      <c r="F2" s="528"/>
-      <c r="G2" s="528"/>
-      <c r="H2" s="528"/>
-      <c r="I2" s="528"/>
-      <c r="J2" s="528"/>
-      <c r="K2" s="528"/>
-      <c r="L2" s="528"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="533"/>
+      <c r="G2" s="533"/>
+      <c r="H2" s="533"/>
+      <c r="I2" s="533"/>
+      <c r="J2" s="533"/>
+      <c r="K2" s="533"/>
+      <c r="L2" s="533"/>
     </row>
     <row r="3" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -7145,10 +7180,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="529" t="s">
+      <c r="I4" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="529"/>
+      <c r="J4" s="534"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -7169,13 +7204,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="530" t="s">
+      <c r="A5" s="535" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="531"/>
-      <c r="C5" s="531"/>
-      <c r="D5" s="531"/>
-      <c r="E5" s="531"/>
+      <c r="B5" s="536"/>
+      <c r="C5" s="536"/>
+      <c r="D5" s="536"/>
+      <c r="E5" s="536"/>
       <c r="F5" s="494"/>
       <c r="G5" s="494"/>
       <c r="H5" s="494"/>
@@ -7399,28 +7434,28 @@
       <c r="D25" s="392"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L7"/>
+  <autoFilter ref="A4:L7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5:K5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="75" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="A6" sqref="A6"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5:K5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
@@ -7431,7 +7466,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H10 H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H10 H24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -7444,7 +7479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7496,10 +7531,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="529" t="s">
+      <c r="I1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="529"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -7517,20 +7552,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="545" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
+      <c r="L2" s="545"/>
     </row>
     <row r="3" spans="1:15" s="86" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -7549,7 +7584,7 @@
         <v>1181</v>
       </c>
       <c r="F3" s="349"/>
-      <c r="G3" s="551">
+      <c r="G3" s="531">
         <v>685000000</v>
       </c>
       <c r="H3" s="350" t="s">
@@ -7575,8 +7610,8 @@
       <c r="N3" s="150" t="s">
         <v>1226</v>
       </c>
-      <c r="O3" s="549" t="s">
-        <v>1240</v>
+      <c r="O3" s="529" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="86" customFormat="1" ht="75" x14ac:dyDescent="0.2">
@@ -7771,7 +7806,7 @@
     </row>
     <row r="8" spans="1:15" s="322" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A8" s="377" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B8" s="377" t="s">
         <v>1110</v>
@@ -7788,7 +7823,7 @@
       <c r="F8" s="381" t="s">
         <v>1112</v>
       </c>
-      <c r="G8" s="548">
+      <c r="G8" s="528">
         <v>10000000</v>
       </c>
       <c r="H8" s="463" t="s">
@@ -7811,11 +7846,11 @@
       <c r="M8" s="451" t="s">
         <v>1186</v>
       </c>
-      <c r="N8" s="550" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O8" s="549" t="s">
-        <v>1241</v>
+      <c r="N8" s="530" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O8" s="529" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="322" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7858,28 +7893,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L10"/>
+  <autoFilter ref="A1:L10" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A4" sqref="A4:E4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7888,7 +7923,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -7901,7 +7936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7953,10 +7988,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="529" t="s">
+      <c r="I1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="529"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -7975,20 +8010,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="545" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
+      <c r="L2" s="545"/>
     </row>
     <row r="3" spans="1:16" s="85" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -8217,7 +8252,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="85" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="85" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
         <v>18</v>
       </c>
@@ -8330,28 +8365,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L9"/>
+  <autoFilter ref="A1:L9" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -8360,7 +8395,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H9" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -8373,14 +8408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8426,10 +8461,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="529" t="s">
+      <c r="I1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="529"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8447,20 +8482,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="545" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
+      <c r="L2" s="545"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="329" t="s">
@@ -8600,28 +8635,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2"/>
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="70" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="G5" sqref="G5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -8630,7 +8665,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -8643,15 +8678,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
     <tabColor indexed="50"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8668,32 +8703,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="545" t="s">
+      <c r="A1" s="550" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
-      <c r="F1" s="545"/>
-      <c r="G1" s="545"/>
-      <c r="H1" s="545"/>
-      <c r="I1" s="545"/>
-      <c r="J1" s="545"/>
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
     </row>
     <row r="2" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="546" t="s">
+      <c r="A2" s="551" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="546"/>
-      <c r="C2" s="546"/>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="412"/>
@@ -8729,27 +8764,27 @@
       <c r="G4" s="411" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="529" t="s">
+      <c r="H4" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="534"/>
       <c r="J4" s="445" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="543" t="s">
+      <c r="A5" s="548" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="543"/>
-      <c r="C5" s="543"/>
-      <c r="D5" s="543"/>
-      <c r="E5" s="543"/>
-      <c r="F5" s="543"/>
-      <c r="G5" s="543"/>
-      <c r="H5" s="543"/>
-      <c r="I5" s="543"/>
-      <c r="J5" s="543"/>
+      <c r="B5" s="548"/>
+      <c r="C5" s="548"/>
+      <c r="D5" s="548"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="548"/>
+      <c r="J5" s="548"/>
     </row>
     <row r="6" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="458" t="s">
@@ -8935,18 +8970,18 @@
       <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="548" t="s">
         <v>1195</v>
       </c>
-      <c r="B12" s="543"/>
-      <c r="C12" s="543"/>
-      <c r="D12" s="543"/>
-      <c r="E12" s="543"/>
-      <c r="F12" s="543"/>
-      <c r="G12" s="543"/>
-      <c r="H12" s="543"/>
-      <c r="I12" s="543"/>
-      <c r="J12" s="543"/>
+      <c r="B12" s="548"/>
+      <c r="C12" s="548"/>
+      <c r="D12" s="548"/>
+      <c r="E12" s="548"/>
+      <c r="F12" s="548"/>
+      <c r="G12" s="548"/>
+      <c r="H12" s="548"/>
+      <c r="I12" s="548"/>
+      <c r="J12" s="548"/>
     </row>
     <row r="13" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="458" t="s">
@@ -9244,18 +9279,18 @@
       <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="543" t="s">
+      <c r="A22" s="548" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="543"/>
-      <c r="C22" s="543"/>
-      <c r="D22" s="543"/>
-      <c r="E22" s="543"/>
-      <c r="F22" s="543"/>
-      <c r="G22" s="543"/>
-      <c r="H22" s="543"/>
-      <c r="I22" s="543"/>
-      <c r="J22" s="543"/>
+      <c r="B22" s="548"/>
+      <c r="C22" s="548"/>
+      <c r="D22" s="548"/>
+      <c r="E22" s="548"/>
+      <c r="F22" s="548"/>
+      <c r="G22" s="548"/>
+      <c r="H22" s="548"/>
+      <c r="I22" s="548"/>
+      <c r="J22" s="548"/>
     </row>
     <row r="23" spans="1:10" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="458" t="s">
@@ -9449,18 +9484,18 @@
       <c r="J28" s="131"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="544" t="s">
+      <c r="A29" s="549" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="544"/>
-      <c r="C29" s="544"/>
-      <c r="D29" s="544"/>
-      <c r="E29" s="544"/>
-      <c r="F29" s="544"/>
-      <c r="G29" s="544"/>
-      <c r="H29" s="544"/>
-      <c r="I29" s="544"/>
-      <c r="J29" s="544"/>
+      <c r="B29" s="549"/>
+      <c r="C29" s="549"/>
+      <c r="D29" s="549"/>
+      <c r="E29" s="549"/>
+      <c r="F29" s="549"/>
+      <c r="G29" s="549"/>
+      <c r="H29" s="549"/>
+      <c r="I29" s="549"/>
+      <c r="J29" s="549"/>
     </row>
     <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="130"/>
@@ -10579,28 +10614,28 @@
       <c r="J123" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J30"/>
+  <autoFilter ref="A4:J30" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:K1"/>
+      <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="72" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:K1"/>
+      <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:K1"/>
+      <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="7">
@@ -10614,7 +10649,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G10 G13:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G10 G13:G20" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -10627,14 +10662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10648,31 +10683,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="541" t="s">
+      <c r="A1" s="546" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
-      <c r="D1" s="541"/>
-      <c r="E1" s="541"/>
-      <c r="F1" s="541"/>
-      <c r="G1" s="541"/>
-      <c r="H1" s="541"/>
-      <c r="I1" s="541"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
       <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="547" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
       <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10706,26 +10741,26 @@
       <c r="F4" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="532" t="s">
+      <c r="G4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="532"/>
+      <c r="H4" s="537"/>
       <c r="I4" s="23" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="543" t="s">
+      <c r="A5" s="548" t="s">
         <v>1195</v>
       </c>
-      <c r="B5" s="543"/>
-      <c r="C5" s="543"/>
-      <c r="D5" s="543"/>
-      <c r="E5" s="543"/>
-      <c r="F5" s="543"/>
-      <c r="G5" s="543"/>
-      <c r="H5" s="543"/>
-      <c r="I5" s="543"/>
+      <c r="B5" s="548"/>
+      <c r="C5" s="548"/>
+      <c r="D5" s="548"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="548"/>
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -10836,28 +10871,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:I8"/>
+  <autoFilter ref="A4:I8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:J1"/>
+      <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:J1"/>
+      <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:J1"/>
+      <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
@@ -10868,7 +10903,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -10881,7 +10916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
@@ -10889,7 +10924,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="81" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10910,36 +10945,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="541" t="s">
+      <c r="A1" s="546" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
-      <c r="D1" s="541"/>
-      <c r="E1" s="541"/>
-      <c r="F1" s="541"/>
-      <c r="G1" s="541"/>
-      <c r="H1" s="541"/>
-      <c r="I1" s="541"/>
-      <c r="J1" s="541"/>
-      <c r="K1" s="541"/>
-      <c r="L1" s="541"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
+      <c r="K1" s="546"/>
+      <c r="L1" s="546"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="547" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -10980,10 +11015,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="529" t="s">
+      <c r="I4" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="529"/>
+      <c r="J4" s="534"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -11001,20 +11036,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="535" t="s">
+      <c r="A5" s="540" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="535"/>
-      <c r="C5" s="535"/>
-      <c r="D5" s="535"/>
-      <c r="E5" s="535"/>
-      <c r="F5" s="535"/>
-      <c r="G5" s="535"/>
-      <c r="H5" s="535"/>
-      <c r="I5" s="535"/>
-      <c r="J5" s="535"/>
-      <c r="K5" s="535"/>
-      <c r="L5" s="535"/>
+      <c r="B5" s="540"/>
+      <c r="C5" s="540"/>
+      <c r="D5" s="540"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
+      <c r="G5" s="540"/>
+      <c r="H5" s="540"/>
+      <c r="I5" s="540"/>
+      <c r="J5" s="540"/>
+      <c r="K5" s="540"/>
+      <c r="L5" s="540"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
@@ -12517,28 +12552,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L37"/>
+  <autoFilter ref="A4:L37" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="F10" sqref="F10"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="L4" sqref="L4:P4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="F10" sqref="F10"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
@@ -12549,7 +12584,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H37" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -12562,8 +12597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12615,10 +12650,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="529" t="s">
+      <c r="H1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="529"/>
+      <c r="I1" s="534"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -12636,19 +12671,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="535" t="s">
+      <c r="A2" s="540" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="540"/>
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
       <c r="N2" s="166"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -12936,28 +12971,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K10"/>
+  <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="L1" sqref="L1:P1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -12966,7 +13001,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -12980,15 +13015,15 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13025,15 +13060,15 @@
         <v>1136</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>1236</v>
+        <v>339</v>
       </c>
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="529" t="s">
+      <c r="H1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="529"/>
+      <c r="I1" s="534"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -13051,19 +13086,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="535" t="s">
+      <c r="A2" s="540" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="540"/>
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
       <c r="L2" s="392"/>
     </row>
     <row r="3" spans="1:14" s="126" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -14062,28 +14097,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K29"/>
+  <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="90" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="L6" sqref="L6"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -14092,7 +14127,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G28" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -14105,15 +14140,15 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14154,10 +14189,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="529" t="s">
+      <c r="H1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="529"/>
+      <c r="I1" s="534"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -14176,19 +14211,19 @@
       <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="535" t="s">
+      <c r="A2" s="540" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="540"/>
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -17567,32 +17602,32 @@
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="158" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75"/>
+  <autoFilter ref="A1:K75" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
+      <selection activeCell="A39" sqref="A39"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="90" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P3" sqref="P3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
-      <selection activeCell="A39" sqref="A39"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -17601,7 +17636,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G75" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -17614,8 +17649,8 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17643,35 +17678,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="541" t="s">
+      <c r="A1" s="546" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
-      <c r="D1" s="541"/>
-      <c r="E1" s="541"/>
-      <c r="F1" s="541"/>
-      <c r="G1" s="541"/>
-      <c r="H1" s="541"/>
-      <c r="I1" s="541"/>
-      <c r="J1" s="541"/>
-      <c r="K1" s="541"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
+      <c r="K1" s="546"/>
       <c r="N1" s="421"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="547" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
       <c r="N2" s="421"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17710,10 +17745,10 @@
       <c r="G4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="529" t="s">
+      <c r="H4" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="534"/>
       <c r="J4" s="73" t="s">
         <v>2</v>
       </c>
@@ -17731,19 +17766,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="545" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="540"/>
-      <c r="I5" s="540"/>
-      <c r="J5" s="540"/>
-      <c r="K5" s="540"/>
+      <c r="B5" s="545"/>
+      <c r="C5" s="545"/>
+      <c r="D5" s="545"/>
+      <c r="E5" s="545"/>
+      <c r="F5" s="545"/>
+      <c r="G5" s="545"/>
+      <c r="H5" s="545"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="545"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="284" t="s">
@@ -18279,28 +18314,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K17"/>
+  <autoFilter ref="A4:K17" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
+      <selection activeCell="B6" sqref="B6:L6"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="90" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P5" sqref="P5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
-      <selection activeCell="B6" sqref="B6:L6"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
@@ -18311,7 +18346,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -18324,13 +18359,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -18375,10 +18410,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="532" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="532"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
@@ -18396,20 +18431,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="533" t="s">
+      <c r="A2" s="538" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
-      <c r="K2" s="533"/>
-      <c r="L2" s="533"/>
+      <c r="B2" s="538"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="538"/>
+      <c r="E2" s="538"/>
+      <c r="F2" s="538"/>
+      <c r="G2" s="538"/>
+      <c r="H2" s="538"/>
+      <c r="I2" s="538"/>
+      <c r="J2" s="538"/>
+      <c r="K2" s="538"/>
+      <c r="L2" s="538"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -18570,28 +18605,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L5"/>
+  <autoFilter ref="A1:L5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="L3" sqref="L3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P3" sqref="P3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="L3" sqref="L3"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -18600,7 +18635,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -18614,15 +18649,15 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="101" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18630,9 +18665,9 @@
     <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="45" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="16.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="25.28515625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="16.42578125" style="45" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="1" customWidth="1"/>
@@ -18666,10 +18701,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="529" t="s">
+      <c r="I1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="529"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -18688,20 +18723,20 @@
       <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="545" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
+      <c r="L2" s="545"/>
       <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -18904,28 +18939,28 @@
       <c r="D26" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L3"/>
+  <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="I34" sqref="I34"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="73" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P3" sqref="P3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="I34" sqref="I34"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -18934,7 +18969,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -18947,8 +18982,8 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18996,10 +19031,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="529" t="s">
+      <c r="H1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="529"/>
+      <c r="I1" s="534"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19018,19 +19053,22 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="545" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
+      <c r="L2" s="421" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -19150,28 +19188,28 @@
       <c r="I7" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K5"/>
+  <autoFilter ref="A1:K5" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="M4" sqref="M4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -19180,7 +19218,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -19193,8 +19231,8 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
     <tabColor indexed="51"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19242,10 +19280,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="529" t="s">
+      <c r="H1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="529"/>
+      <c r="I1" s="534"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19264,19 +19302,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="545" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="297" t="s">
@@ -19463,28 +19501,28 @@
       <c r="I10" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K6"/>
+  <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="90" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P3" sqref="P3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -19493,7 +19531,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -19506,7 +19544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19607,7 +19645,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
+      <selection activeCell="D15" sqref="D14:D15"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -19622,8 +19661,7 @@
         <oddFooter>&amp;R&amp;"Arial,Italic"&amp;8&amp;Z&amp;F</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
-      <selection activeCell="D15" sqref="D14:D15"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
@@ -19632,7 +19670,7 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -19646,13 +19684,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -19698,10 +19736,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="532" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="532"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -19719,25 +19757,25 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="534" t="s">
+      <c r="A2" s="539" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="534"/>
-      <c r="C2" s="534"/>
-      <c r="D2" s="534"/>
-      <c r="E2" s="534"/>
-      <c r="F2" s="534"/>
-      <c r="G2" s="534"/>
-      <c r="H2" s="534"/>
-      <c r="I2" s="534"/>
-      <c r="J2" s="534"/>
-      <c r="K2" s="534"/>
-      <c r="L2" s="534"/>
+      <c r="B2" s="539"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="539"/>
+      <c r="F2" s="539"/>
+      <c r="G2" s="539"/>
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="539"/>
+      <c r="L2" s="539"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="112" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B3" s="112" t="s">
         <v>120</v>
@@ -19778,8 +19816,8 @@
         <v>1147</v>
       </c>
       <c r="N3" s="82"/>
-      <c r="O3" s="547" t="s">
-        <v>1238</v>
+      <c r="O3" s="527" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -20858,28 +20896,28 @@
       <c r="N27" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L23"/>
+  <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="B37" sqref="B37"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P3" sqref="P3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="B37" sqref="B37"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -20888,7 +20926,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H25" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -20902,14 +20940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20954,10 +20992,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="529" t="s">
+      <c r="I1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="529"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="61" t="s">
         <v>2</v>
       </c>
@@ -20976,20 +21014,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="535" t="s">
+      <c r="A2" s="540" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-      <c r="L2" s="535"/>
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="540"/>
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
+      <c r="L2" s="540"/>
     </row>
     <row r="3" spans="1:16" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
@@ -22405,28 +22443,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31"/>
+  <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -22435,7 +22473,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H31" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -22449,13 +22487,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -22501,10 +22539,10 @@
       <c r="H1" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="529" t="s">
+      <c r="I1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="529"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="163" t="s">
         <v>2</v>
       </c>
@@ -22522,20 +22560,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="536" t="s">
+      <c r="A2" s="541" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="536"/>
-      <c r="C2" s="536"/>
-      <c r="D2" s="536"/>
-      <c r="E2" s="536"/>
-      <c r="F2" s="536"/>
-      <c r="G2" s="536"/>
-      <c r="H2" s="536"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="536"/>
-      <c r="K2" s="536"/>
-      <c r="L2" s="536"/>
+      <c r="B2" s="541"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="541"/>
       <c r="M2" s="241"/>
       <c r="N2" s="241"/>
       <c r="O2" s="241"/>
@@ -22990,7 +23028,7 @@
       </c>
       <c r="O12" s="152"/>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="112" t="s">
         <v>105</v>
       </c>
@@ -23456,7 +23494,7 @@
       </c>
       <c r="O22" s="245"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="112" t="s">
         <v>93</v>
       </c>
@@ -24672,14 +24710,14 @@
       <c r="K49" s="510"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L47"/>
+  <autoFilter ref="A1:L47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
@@ -24687,14 +24725,14 @@
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -24703,7 +24741,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H47" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -24717,7 +24755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24765,10 +24803,10 @@
       <c r="G1" s="65" t="s">
         <v>1215</v>
       </c>
-      <c r="H1" s="529" t="s">
+      <c r="H1" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="529"/>
+      <c r="I1" s="534"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -24783,19 +24821,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="537" t="s">
+      <c r="A2" s="542" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
-      <c r="K2" s="539"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="544"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -25849,28 +25887,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K28"/>
+  <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
+      <selection activeCell="C21" sqref="C21"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
-      <selection activeCell="C21" sqref="C21"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -25879,7 +25917,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G27" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -25892,14 +25930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25942,10 +25980,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="532" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="532"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -25955,20 +25993,20 @@
       <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="534" t="s">
+      <c r="A2" s="539" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="534"/>
-      <c r="C2" s="534"/>
-      <c r="D2" s="534"/>
-      <c r="E2" s="534"/>
-      <c r="F2" s="534"/>
-      <c r="G2" s="534"/>
-      <c r="H2" s="534"/>
-      <c r="I2" s="534"/>
-      <c r="J2" s="534"/>
-      <c r="K2" s="534"/>
-      <c r="L2" s="534"/>
+      <c r="B2" s="539"/>
+      <c r="C2" s="539"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="539"/>
+      <c r="F2" s="539"/>
+      <c r="G2" s="539"/>
+      <c r="H2" s="539"/>
+      <c r="I2" s="539"/>
+      <c r="J2" s="539"/>
+      <c r="K2" s="539"/>
+      <c r="L2" s="539"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -26126,28 +26164,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L4"/>
+  <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -26156,7 +26194,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -26169,15 +26207,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <tabColor indexed="15"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="153" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26198,36 +26236,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="541" t="s">
+      <c r="A1" s="546" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
-      <c r="D1" s="541"/>
-      <c r="E1" s="541"/>
-      <c r="F1" s="541"/>
-      <c r="G1" s="541"/>
-      <c r="H1" s="541"/>
-      <c r="I1" s="541"/>
-      <c r="J1" s="541"/>
-      <c r="K1" s="541"/>
-      <c r="L1" s="541"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
+      <c r="K1" s="546"/>
+      <c r="L1" s="546"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="547" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -26268,10 +26306,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="529" t="s">
+      <c r="I4" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="529"/>
+      <c r="J4" s="534"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -26289,20 +26327,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="545" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="540"/>
-      <c r="I5" s="540"/>
-      <c r="J5" s="540"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="540"/>
+      <c r="B5" s="545"/>
+      <c r="C5" s="545"/>
+      <c r="D5" s="545"/>
+      <c r="E5" s="545"/>
+      <c r="F5" s="545"/>
+      <c r="G5" s="545"/>
+      <c r="H5" s="545"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="545"/>
+      <c r="L5" s="545"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="368"/>
@@ -27834,30 +27872,30 @@
       <c r="L113" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C25" sqref="C25"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" scale="75" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="P7" sqref="P7"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
       <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:L1"/>
+      <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
@@ -27868,7 +27906,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H7" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -27881,7 +27919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor indexed="15"/>
     <pageSetUpPr fitToPage="1"/>
@@ -27889,7 +27927,7 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="153" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27910,36 +27948,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="541" t="s">
+      <c r="A1" s="546" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="541"/>
-      <c r="C1" s="541"/>
-      <c r="D1" s="541"/>
-      <c r="E1" s="541"/>
-      <c r="F1" s="541"/>
-      <c r="G1" s="541"/>
-      <c r="H1" s="541"/>
-      <c r="I1" s="541"/>
-      <c r="J1" s="541"/>
-      <c r="K1" s="541"/>
-      <c r="L1" s="541"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
+      <c r="K1" s="546"/>
+      <c r="L1" s="546"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="547" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151"/>
@@ -27980,10 +28018,10 @@
       <c r="H4" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="529" t="s">
+      <c r="I4" s="534" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="529"/>
+      <c r="J4" s="534"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -28001,20 +28039,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="545" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="540"/>
-      <c r="I5" s="540"/>
-      <c r="J5" s="540"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="540"/>
+      <c r="B5" s="545"/>
+      <c r="C5" s="545"/>
+      <c r="D5" s="545"/>
+      <c r="E5" s="545"/>
+      <c r="F5" s="545"/>
+      <c r="G5" s="545"/>
+      <c r="H5" s="545"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="545"/>
+      <c r="L5" s="545"/>
     </row>
     <row r="6" spans="1:15" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">
@@ -29703,7 +29741,7 @@
       <c r="L115" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L2">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-000008000000}">
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="4">

--- a/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
+++ b/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\GitHub\RTP\projlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2B836-E8C0-4D41-ADC2-B61A829DE709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AE5B38-31A2-4E10-9798-301F837120C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Constrained - Arterial Lin" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$J$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Auto Constrained - Added Freewa'!$A$1:$O$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Auto Constrained - Arterial Cap'!$A$1:$O$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Auto Constrained - Arterial Lin'!$A$1:$O$12</definedName>
@@ -80,8 +80,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="19">'Bike Illustrative - withRd'!$A$1:$O$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'Bike Illustrative - woutRD'!$A$1:$N$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="21">'Bike Illustrative onstreet wout'!$A$1:$N$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'Transit Constrained'!$A$1:$J$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'Transit Illustrative'!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'Transit Constrained'!$A$1:$K$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'Transit Illustrative'!$A$1:$J$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -125,8 +125,8 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$3</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$J$30</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$I$8</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$A$1:$L$7</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$A$1:$L$27</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$A$1:$L$12</definedName>
@@ -147,8 +147,8 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$8</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$1:$K$19</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$10</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$J$32</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$I$10</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$K$32</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$J$10</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -191,8 +191,8 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$3</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$J$30</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$I$8</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$A$1:$L$7</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$A$1:$L$27</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$A$1:$L$12</definedName>
@@ -213,8 +213,8 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$8</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$1:$K$19</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$10</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$J$32</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$I$10</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$K$32</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$J$10</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -257,8 +257,8 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$3</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$J$30</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$I$8</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$A$1:$L$7</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$A$1:$L$27</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$A$1:$L$12</definedName>
@@ -279,8 +279,8 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="19" hidden="1">'Bike Illustrative - withRd'!$A$1:$L$8</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$1:$K$19</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$10</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$J$32</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$I$10</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$K$32</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$J$10</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1245">
   <si>
     <t>Name</t>
   </si>
@@ -4573,6 +4573,9 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -4587,7 +4590,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4909,6 +4912,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4930,7 +4939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -5212,6 +5221,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5225,7 +5249,7 @@
     <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="555">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6670,6 +6694,12 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6729,6 +6759,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -7108,38 +7141,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="532" t="s">
+      <c r="A1" s="534" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="532"/>
-      <c r="C1" s="532"/>
-      <c r="D1" s="532"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532"/>
-      <c r="G1" s="532"/>
-      <c r="H1" s="532"/>
-      <c r="I1" s="532"/>
-      <c r="J1" s="532"/>
-      <c r="K1" s="532"/>
-      <c r="L1" s="532"/>
+      <c r="B1" s="534"/>
+      <c r="C1" s="534"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
+      <c r="L1" s="534"/>
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="533" t="s">
+      <c r="A2" s="535" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="533"/>
-      <c r="G2" s="533"/>
-      <c r="H2" s="533"/>
-      <c r="I2" s="533"/>
-      <c r="J2" s="533"/>
-      <c r="K2" s="533"/>
-      <c r="L2" s="533"/>
+      <c r="B2" s="535"/>
+      <c r="C2" s="535"/>
+      <c r="D2" s="535"/>
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="535"/>
+      <c r="I2" s="535"/>
+      <c r="J2" s="535"/>
+      <c r="K2" s="535"/>
+      <c r="L2" s="535"/>
     </row>
     <row r="3" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -7180,10 +7213,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="534" t="s">
+      <c r="I4" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="534"/>
+      <c r="J4" s="536"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -7204,13 +7237,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="535" t="s">
+      <c r="A5" s="537" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="536"/>
-      <c r="C5" s="536"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="536"/>
+      <c r="B5" s="538"/>
+      <c r="C5" s="538"/>
+      <c r="D5" s="538"/>
+      <c r="E5" s="538"/>
       <c r="F5" s="494"/>
       <c r="G5" s="494"/>
       <c r="H5" s="494"/>
@@ -7531,10 +7564,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="534" t="s">
+      <c r="I1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="534"/>
+      <c r="J1" s="536"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -7552,20 +7585,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="547" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
     </row>
     <row r="3" spans="1:15" s="86" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -7988,10 +8021,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="534" t="s">
+      <c r="I1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="534"/>
+      <c r="J1" s="536"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8010,20 +8043,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="547" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
     </row>
     <row r="3" spans="1:16" s="85" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -8252,7 +8285,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="85" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="85" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
         <v>18</v>
       </c>
@@ -8461,10 +8494,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="534" t="s">
+      <c r="I1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="534"/>
+      <c r="J1" s="536"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8482,20 +8515,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="547" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="329" t="s">
@@ -8683,10 +8716,10 @@
     <tabColor indexed="50"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8697,40 +8730,42 @@
     <col min="4" max="4" width="23.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="422" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="50" customWidth="1"/>
-    <col min="7" max="9" width="21.7109375" style="50" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="10" width="21.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="550" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="552" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="550"/>
-      <c r="C1" s="550"/>
-      <c r="D1" s="550"/>
-      <c r="E1" s="550"/>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="551" t="s">
+      <c r="B1" s="552"/>
+      <c r="C1" s="552"/>
+      <c r="D1" s="552"/>
+      <c r="E1" s="552"/>
+      <c r="F1" s="552"/>
+      <c r="G1" s="552"/>
+      <c r="H1" s="552"/>
+      <c r="I1" s="552"/>
+      <c r="J1" s="552"/>
+      <c r="K1" s="552"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="553" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="551"/>
-      <c r="F2" s="551"/>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
-    </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="553"/>
+      <c r="C2" s="553"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+    </row>
+    <row r="3" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="412"/>
       <c r="B3" s="412"/>
       <c r="C3" s="412"/>
@@ -8740,9 +8775,10 @@
       <c r="G3" s="444"/>
       <c r="H3" s="444"/>
       <c r="I3" s="444"/>
-      <c r="J3" s="412"/>
-    </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="444"/>
+      <c r="K3" s="412"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
@@ -8764,29 +8800,33 @@
       <c r="G4" s="411" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="534" t="s">
+      <c r="H4" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="534"/>
-      <c r="J4" s="445" t="s">
+      <c r="I4" s="536"/>
+      <c r="J4" s="533" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="445" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="548" t="s">
+    <row r="5" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="550" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
-      <c r="D5" s="548"/>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
-    </row>
-    <row r="6" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="550"/>
+      <c r="C5" s="550"/>
+      <c r="D5" s="550"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="550"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="550"/>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="458" t="s">
         <v>278</v>
       </c>
@@ -8814,11 +8854,14 @@
         <f>F6*(1+3.1/100)^((MID(G6,FIND("-",G6)+1,255)+0)-2016)</f>
         <v>40548773.26699999</v>
       </c>
-      <c r="J6" s="459">
+      <c r="J6" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K6" s="459">
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="458" t="s">
         <v>278</v>
       </c>
@@ -8846,11 +8889,14 @@
         <f t="shared" ref="I7:I10" si="1">F7*(1+3.1/100)^((MID(G7,FIND("-",G7)+1,255)+0)-2016)</f>
         <v>53618987.972487517</v>
       </c>
-      <c r="J7" s="459">
+      <c r="J7" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K7" s="459">
         <v>1110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="458" t="s">
         <v>278</v>
       </c>
@@ -8878,11 +8924,14 @@
         <f t="shared" si="1"/>
         <v>60974255.381201506</v>
       </c>
-      <c r="J8" s="459">
+      <c r="J8" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K8" s="459">
         <v>1110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="458" t="s">
         <v>278</v>
       </c>
@@ -8910,11 +8959,14 @@
         <f t="shared" si="1"/>
         <v>51972933.439455628</v>
       </c>
-      <c r="J9" s="459">
+      <c r="J9" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K9" s="459">
         <v>1110</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="458" t="s">
         <v>278</v>
       </c>
@@ -8942,11 +8994,14 @@
         <f t="shared" si="1"/>
         <v>62420784.353129871</v>
       </c>
-      <c r="J10" s="459">
+      <c r="J10" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K10" s="459">
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="130"/>
       <c r="B11" s="130"/>
       <c r="C11" s="127" t="s">
@@ -8967,23 +9022,25 @@
         <f t="shared" si="2"/>
         <v>269535734.41327453</v>
       </c>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="548" t="s">
+      <c r="J11" s="315"/>
+      <c r="K11" s="131"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="550" t="s">
         <v>1195</v>
       </c>
-      <c r="B12" s="548"/>
-      <c r="C12" s="548"/>
-      <c r="D12" s="548"/>
-      <c r="E12" s="548"/>
-      <c r="F12" s="548"/>
-      <c r="G12" s="548"/>
-      <c r="H12" s="548"/>
-      <c r="I12" s="548"/>
-      <c r="J12" s="548"/>
-    </row>
-    <row r="13" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="550"/>
+      <c r="C12" s="550"/>
+      <c r="D12" s="550"/>
+      <c r="E12" s="550"/>
+      <c r="F12" s="550"/>
+      <c r="G12" s="550"/>
+      <c r="H12" s="550"/>
+      <c r="I12" s="550"/>
+      <c r="J12" s="550"/>
+      <c r="K12" s="550"/>
+    </row>
+    <row r="13" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="458" t="s">
         <v>1001</v>
       </c>
@@ -9013,11 +9070,14 @@
         <f>F13*(1+3.1/100)^((MID(G13,FIND("-",G13)+1,255)+0)-2016)</f>
         <v>25532851.415470246</v>
       </c>
-      <c r="J13" s="459">
+      <c r="J13" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K13" s="459">
         <v>1117</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="458" t="s">
         <v>1001</v>
       </c>
@@ -9047,11 +9107,14 @@
         <f t="shared" ref="I14:I20" si="4">F14*(1+3.1/100)^((MID(G14,FIND("-",G14)+1,255)+0)-2016)</f>
         <v>29743539.210342199</v>
       </c>
-      <c r="J14" s="459">
+      <c r="J14" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K14" s="459">
         <v>1117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="458" t="s">
         <v>1001</v>
       </c>
@@ -9081,11 +9144,14 @@
         <f t="shared" si="4"/>
         <v>34648622.292970419</v>
       </c>
-      <c r="J15" s="459">
+      <c r="J15" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K15" s="459">
         <v>1117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="458" t="s">
         <v>1001</v>
       </c>
@@ -9115,11 +9181,14 @@
         <f t="shared" si="4"/>
         <v>41613856.235419914</v>
       </c>
-      <c r="J16" s="459">
+      <c r="J16" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K16" s="459">
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="458" t="s">
         <v>279</v>
       </c>
@@ -9149,11 +9218,14 @@
         <f t="shared" si="4"/>
         <v>76598554.246410742</v>
       </c>
-      <c r="J17" s="459">
+      <c r="J17" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K17" s="459">
         <v>1115</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="458" t="s">
         <v>279</v>
       </c>
@@ -9183,11 +9255,14 @@
         <f t="shared" si="4"/>
         <v>89230617.631026596</v>
       </c>
-      <c r="J18" s="459">
+      <c r="J18" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K18" s="459">
         <v>1115</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="458" t="s">
         <v>279</v>
       </c>
@@ -9217,11 +9292,14 @@
         <f t="shared" si="4"/>
         <v>103945866.87891126</v>
       </c>
-      <c r="J19" s="459">
+      <c r="J19" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K19" s="459">
         <v>1115</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="458" t="s">
         <v>279</v>
       </c>
@@ -9251,11 +9329,14 @@
         <f t="shared" si="4"/>
         <v>124841568.70625974</v>
       </c>
-      <c r="J20" s="459">
+      <c r="J20" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K20" s="459">
         <v>1115</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="130"/>
       <c r="B21" s="130"/>
       <c r="C21" s="127" t="s">
@@ -9276,23 +9357,25 @@
         <f t="shared" si="5"/>
         <v>526155476.6168111</v>
       </c>
-      <c r="J21" s="131"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="548" t="s">
+      <c r="J21" s="315"/>
+      <c r="K21" s="131"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="550" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="548"/>
-      <c r="C22" s="548"/>
-      <c r="D22" s="548"/>
-      <c r="E22" s="548"/>
-      <c r="F22" s="548"/>
-      <c r="G22" s="548"/>
-      <c r="H22" s="548"/>
-      <c r="I22" s="548"/>
-      <c r="J22" s="548"/>
-    </row>
-    <row r="23" spans="1:10" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="B22" s="550"/>
+      <c r="C22" s="550"/>
+      <c r="D22" s="550"/>
+      <c r="E22" s="550"/>
+      <c r="F22" s="550"/>
+      <c r="G22" s="550"/>
+      <c r="H22" s="550"/>
+      <c r="I22" s="550"/>
+      <c r="J22" s="550"/>
+      <c r="K22" s="550"/>
+    </row>
+    <row r="23" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="458" t="s">
         <v>280</v>
       </c>
@@ -9322,11 +9405,14 @@
         <f>F23*(1+3.1/100)^((MID(G23,FIND("-",G23)+1,255)+0)-2016)</f>
         <v>16964730.004679997</v>
       </c>
-      <c r="J23" s="459">
+      <c r="J23" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K23" s="459">
         <v>1130</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" s="458" t="s">
         <v>280</v>
       </c>
@@ -9356,11 +9442,14 @@
         <f t="shared" ref="I24:I27" si="7">F24*(1+3.1/100)^((MID(G24,FIND("-",G24)+1,255)+0)-2016)</f>
         <v>13992002.575677695</v>
       </c>
-      <c r="J24" s="459">
+      <c r="J24" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K24" s="459">
         <v>1130</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="458" t="s">
         <v>280</v>
       </c>
@@ -9390,11 +9479,14 @@
         <f t="shared" si="7"/>
         <v>20939451.604080908</v>
       </c>
-      <c r="J25" s="459">
+      <c r="J25" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K25" s="459">
         <v>1130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="458" t="s">
         <v>280</v>
       </c>
@@ -9424,11 +9516,14 @@
         <f t="shared" si="7"/>
         <v>9493722.508273894</v>
       </c>
-      <c r="J26" s="459">
+      <c r="J26" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K26" s="459">
         <v>1130</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="458" t="s">
         <v>280</v>
       </c>
@@ -9456,11 +9551,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J27" s="459">
+      <c r="J27" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K27" s="459">
         <v>1130</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="130"/>
       <c r="B28" s="130"/>
       <c r="C28" s="127" t="s">
@@ -9481,23 +9579,25 @@
         <f t="shared" si="8"/>
         <v>61389906.692712493</v>
       </c>
-      <c r="J28" s="131"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="549" t="s">
+      <c r="J28" s="315"/>
+      <c r="K28" s="131"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="551" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="549"/>
-      <c r="C29" s="549"/>
-      <c r="D29" s="549"/>
-      <c r="E29" s="549"/>
-      <c r="F29" s="549"/>
-      <c r="G29" s="549"/>
-      <c r="H29" s="549"/>
-      <c r="I29" s="549"/>
-      <c r="J29" s="549"/>
-    </row>
-    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="551"/>
+      <c r="C29" s="551"/>
+      <c r="D29" s="551"/>
+      <c r="E29" s="551"/>
+      <c r="F29" s="551"/>
+      <c r="G29" s="551"/>
+      <c r="H29" s="551"/>
+      <c r="I29" s="551"/>
+      <c r="J29" s="551"/>
+      <c r="K29" s="551"/>
+    </row>
+    <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="130"/>
       <c r="B30" s="130"/>
       <c r="C30" s="127" t="s">
@@ -9509,9 +9609,10 @@
       <c r="G30" s="312"/>
       <c r="H30" s="312"/>
       <c r="I30" s="312"/>
-      <c r="J30" s="131"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="J30" s="315"/>
+      <c r="K30" s="131"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="133"/>
       <c r="B32" s="133"/>
       <c r="C32" s="136" t="s">
@@ -9531,9 +9632,10 @@
         <f t="shared" si="9"/>
         <v>857081117.72279811</v>
       </c>
-      <c r="J32" s="133"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="144"/>
+      <c r="K32" s="133"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="129"/>
       <c r="B34" s="129"/>
       <c r="C34" s="129"/>
@@ -9543,9 +9645,10 @@
       <c r="G34" s="145"/>
       <c r="H34" s="145"/>
       <c r="I34" s="145"/>
-      <c r="J34" s="129"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="145"/>
+      <c r="K34" s="129"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="129"/>
       <c r="B35" s="129"/>
       <c r="C35" s="129"/>
@@ -9555,9 +9658,10 @@
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
       <c r="I35" s="145"/>
-      <c r="J35" s="129"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="145"/>
+      <c r="K35" s="129"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="129"/>
       <c r="B36" s="129"/>
       <c r="C36" s="129"/>
@@ -9567,9 +9671,10 @@
       <c r="G36" s="145"/>
       <c r="H36" s="145"/>
       <c r="I36" s="145"/>
-      <c r="J36" s="129"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="145"/>
+      <c r="K36" s="129"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="129"/>
       <c r="B37" s="129"/>
       <c r="C37" s="129"/>
@@ -9579,9 +9684,10 @@
       <c r="G37" s="145"/>
       <c r="H37" s="145"/>
       <c r="I37" s="145"/>
-      <c r="J37" s="129"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="145"/>
+      <c r="K37" s="129"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="129"/>
       <c r="B38" s="129"/>
       <c r="C38" s="129"/>
@@ -9591,9 +9697,10 @@
       <c r="G38" s="145"/>
       <c r="H38" s="145"/>
       <c r="I38" s="145"/>
-      <c r="J38" s="129"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="145"/>
+      <c r="K38" s="129"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="129"/>
       <c r="B39" s="129"/>
       <c r="C39" s="129"/>
@@ -9603,9 +9710,10 @@
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
       <c r="I39" s="145"/>
-      <c r="J39" s="129"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="145"/>
+      <c r="K39" s="129"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="129"/>
       <c r="B40" s="129"/>
       <c r="C40" s="129"/>
@@ -9615,9 +9723,10 @@
       <c r="G40" s="145"/>
       <c r="H40" s="145"/>
       <c r="I40" s="145"/>
-      <c r="J40" s="129"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="145"/>
+      <c r="K40" s="129"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="129"/>
       <c r="B41" s="129"/>
       <c r="C41" s="129"/>
@@ -9627,9 +9736,10 @@
       <c r="G41" s="145"/>
       <c r="H41" s="145"/>
       <c r="I41" s="145"/>
-      <c r="J41" s="129"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="145"/>
+      <c r="K41" s="129"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="129"/>
       <c r="B42" s="129"/>
       <c r="C42" s="129"/>
@@ -9639,9 +9749,10 @@
       <c r="G42" s="145"/>
       <c r="H42" s="145"/>
       <c r="I42" s="145"/>
-      <c r="J42" s="129"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="145"/>
+      <c r="K42" s="129"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="129"/>
       <c r="B43" s="129"/>
       <c r="C43" s="129"/>
@@ -9651,9 +9762,10 @@
       <c r="G43" s="145"/>
       <c r="H43" s="145"/>
       <c r="I43" s="145"/>
-      <c r="J43" s="129"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="145"/>
+      <c r="K43" s="129"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="129"/>
       <c r="B44" s="129"/>
       <c r="C44" s="129"/>
@@ -9663,9 +9775,10 @@
       <c r="G44" s="145"/>
       <c r="H44" s="145"/>
       <c r="I44" s="145"/>
-      <c r="J44" s="129"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="145"/>
+      <c r="K44" s="129"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="129"/>
       <c r="B45" s="129"/>
       <c r="C45" s="129"/>
@@ -9675,9 +9788,10 @@
       <c r="G45" s="145"/>
       <c r="H45" s="145"/>
       <c r="I45" s="145"/>
-      <c r="J45" s="129"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="145"/>
+      <c r="K45" s="129"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="129"/>
       <c r="B46" s="129"/>
       <c r="C46" s="129"/>
@@ -9687,9 +9801,10 @@
       <c r="G46" s="145"/>
       <c r="H46" s="145"/>
       <c r="I46" s="145"/>
-      <c r="J46" s="129"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="145"/>
+      <c r="K46" s="129"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="129"/>
       <c r="B47" s="129"/>
       <c r="C47" s="129"/>
@@ -9699,9 +9814,10 @@
       <c r="G47" s="145"/>
       <c r="H47" s="145"/>
       <c r="I47" s="145"/>
-      <c r="J47" s="129"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="145"/>
+      <c r="K47" s="129"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="129"/>
       <c r="B48" s="129"/>
       <c r="C48" s="129"/>
@@ -9711,9 +9827,10 @@
       <c r="G48" s="145"/>
       <c r="H48" s="145"/>
       <c r="I48" s="145"/>
-      <c r="J48" s="129"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="145"/>
+      <c r="K48" s="129"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="129"/>
       <c r="B49" s="129"/>
       <c r="C49" s="129"/>
@@ -9723,9 +9840,10 @@
       <c r="G49" s="145"/>
       <c r="H49" s="145"/>
       <c r="I49" s="145"/>
-      <c r="J49" s="129"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="145"/>
+      <c r="K49" s="129"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="129"/>
       <c r="B50" s="129"/>
       <c r="C50" s="129"/>
@@ -9735,9 +9853,10 @@
       <c r="G50" s="145"/>
       <c r="H50" s="145"/>
       <c r="I50" s="145"/>
-      <c r="J50" s="129"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="145"/>
+      <c r="K50" s="129"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -9747,9 +9866,10 @@
       <c r="G51" s="49"/>
       <c r="H51" s="49"/>
       <c r="I51" s="49"/>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="145"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -9759,9 +9879,10 @@
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
       <c r="I52" s="49"/>
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="145"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -9771,9 +9892,10 @@
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="145"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -9783,9 +9905,10 @@
       <c r="G54" s="49"/>
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="145"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -9795,9 +9918,10 @@
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="145"/>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -9807,9 +9931,10 @@
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
       <c r="I56" s="49"/>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="145"/>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -9819,9 +9944,10 @@
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="145"/>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -9831,9 +9957,10 @@
       <c r="G58" s="49"/>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="145"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -9843,9 +9970,10 @@
       <c r="G59" s="49"/>
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="145"/>
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -9855,9 +9983,10 @@
       <c r="G60" s="49"/>
       <c r="H60" s="49"/>
       <c r="I60" s="49"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="145"/>
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -9867,9 +9996,10 @@
       <c r="G61" s="49"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="145"/>
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -9879,9 +10009,10 @@
       <c r="G62" s="49"/>
       <c r="H62" s="49"/>
       <c r="I62" s="49"/>
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="145"/>
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -9891,9 +10022,10 @@
       <c r="G63" s="49"/>
       <c r="H63" s="49"/>
       <c r="I63" s="49"/>
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="145"/>
+      <c r="K63" s="15"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -9903,9 +10035,10 @@
       <c r="G64" s="49"/>
       <c r="H64" s="49"/>
       <c r="I64" s="49"/>
-      <c r="J64" s="15"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="145"/>
+      <c r="K64" s="15"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -9915,9 +10048,10 @@
       <c r="G65" s="49"/>
       <c r="H65" s="49"/>
       <c r="I65" s="49"/>
-      <c r="J65" s="15"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="145"/>
+      <c r="K65" s="15"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -9927,9 +10061,10 @@
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
       <c r="I66" s="49"/>
-      <c r="J66" s="15"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="145"/>
+      <c r="K66" s="15"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -9939,9 +10074,10 @@
       <c r="G67" s="49"/>
       <c r="H67" s="49"/>
       <c r="I67" s="49"/>
-      <c r="J67" s="15"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J67" s="145"/>
+      <c r="K67" s="15"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -9951,9 +10087,10 @@
       <c r="G68" s="49"/>
       <c r="H68" s="49"/>
       <c r="I68" s="49"/>
-      <c r="J68" s="15"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J68" s="145"/>
+      <c r="K68" s="15"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -9963,9 +10100,10 @@
       <c r="G69" s="49"/>
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
-      <c r="J69" s="15"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J69" s="145"/>
+      <c r="K69" s="15"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9975,9 +10113,10 @@
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
       <c r="I70" s="49"/>
-      <c r="J70" s="15"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J70" s="145"/>
+      <c r="K70" s="15"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9987,9 +10126,10 @@
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J71" s="145"/>
+      <c r="K71" s="15"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9999,9 +10139,10 @@
       <c r="G72" s="49"/>
       <c r="H72" s="49"/>
       <c r="I72" s="49"/>
-      <c r="J72" s="15"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J72" s="145"/>
+      <c r="K72" s="15"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -10011,9 +10152,10 @@
       <c r="G73" s="49"/>
       <c r="H73" s="49"/>
       <c r="I73" s="49"/>
-      <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J73" s="145"/>
+      <c r="K73" s="15"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -10023,9 +10165,10 @@
       <c r="G74" s="49"/>
       <c r="H74" s="49"/>
       <c r="I74" s="49"/>
-      <c r="J74" s="15"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J74" s="145"/>
+      <c r="K74" s="15"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -10035,9 +10178,10 @@
       <c r="G75" s="49"/>
       <c r="H75" s="49"/>
       <c r="I75" s="49"/>
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J75" s="145"/>
+      <c r="K75" s="15"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -10047,9 +10191,10 @@
       <c r="G76" s="49"/>
       <c r="H76" s="49"/>
       <c r="I76" s="49"/>
-      <c r="J76" s="15"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J76" s="145"/>
+      <c r="K76" s="15"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -10059,9 +10204,10 @@
       <c r="G77" s="49"/>
       <c r="H77" s="49"/>
       <c r="I77" s="49"/>
-      <c r="J77" s="15"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J77" s="145"/>
+      <c r="K77" s="15"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -10071,9 +10217,10 @@
       <c r="G78" s="49"/>
       <c r="H78" s="49"/>
       <c r="I78" s="49"/>
-      <c r="J78" s="15"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J78" s="145"/>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -10083,9 +10230,10 @@
       <c r="G79" s="49"/>
       <c r="H79" s="49"/>
       <c r="I79" s="49"/>
-      <c r="J79" s="15"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J79" s="145"/>
+      <c r="K79" s="15"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -10095,9 +10243,10 @@
       <c r="G80" s="49"/>
       <c r="H80" s="49"/>
       <c r="I80" s="49"/>
-      <c r="J80" s="15"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J80" s="145"/>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -10107,9 +10256,10 @@
       <c r="G81" s="49"/>
       <c r="H81" s="49"/>
       <c r="I81" s="49"/>
-      <c r="J81" s="15"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J81" s="145"/>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -10119,9 +10269,10 @@
       <c r="G82" s="49"/>
       <c r="H82" s="49"/>
       <c r="I82" s="49"/>
-      <c r="J82" s="15"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J82" s="145"/>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -10131,9 +10282,10 @@
       <c r="G83" s="49"/>
       <c r="H83" s="49"/>
       <c r="I83" s="49"/>
-      <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J83" s="145"/>
+      <c r="K83" s="15"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -10143,9 +10295,10 @@
       <c r="G84" s="49"/>
       <c r="H84" s="49"/>
       <c r="I84" s="49"/>
-      <c r="J84" s="15"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J84" s="145"/>
+      <c r="K84" s="15"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -10155,9 +10308,10 @@
       <c r="G85" s="49"/>
       <c r="H85" s="49"/>
       <c r="I85" s="49"/>
-      <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="145"/>
+      <c r="K85" s="15"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -10167,9 +10321,10 @@
       <c r="G86" s="49"/>
       <c r="H86" s="49"/>
       <c r="I86" s="49"/>
-      <c r="J86" s="15"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J86" s="145"/>
+      <c r="K86" s="15"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -10179,9 +10334,10 @@
       <c r="G87" s="49"/>
       <c r="H87" s="49"/>
       <c r="I87" s="49"/>
-      <c r="J87" s="15"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="145"/>
+      <c r="K87" s="15"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -10191,9 +10347,10 @@
       <c r="G88" s="49"/>
       <c r="H88" s="49"/>
       <c r="I88" s="49"/>
-      <c r="J88" s="15"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J88" s="145"/>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -10203,9 +10360,10 @@
       <c r="G89" s="49"/>
       <c r="H89" s="49"/>
       <c r="I89" s="49"/>
-      <c r="J89" s="15"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J89" s="145"/>
+      <c r="K89" s="15"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -10215,9 +10373,10 @@
       <c r="G90" s="49"/>
       <c r="H90" s="49"/>
       <c r="I90" s="49"/>
-      <c r="J90" s="15"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J90" s="145"/>
+      <c r="K90" s="15"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -10227,9 +10386,10 @@
       <c r="G91" s="49"/>
       <c r="H91" s="49"/>
       <c r="I91" s="49"/>
-      <c r="J91" s="15"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J91" s="145"/>
+      <c r="K91" s="15"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -10239,9 +10399,10 @@
       <c r="G92" s="49"/>
       <c r="H92" s="49"/>
       <c r="I92" s="49"/>
-      <c r="J92" s="15"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J92" s="145"/>
+      <c r="K92" s="15"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -10251,9 +10412,10 @@
       <c r="G93" s="49"/>
       <c r="H93" s="49"/>
       <c r="I93" s="49"/>
-      <c r="J93" s="15"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J93" s="145"/>
+      <c r="K93" s="15"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -10263,9 +10425,10 @@
       <c r="G94" s="49"/>
       <c r="H94" s="49"/>
       <c r="I94" s="49"/>
-      <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J94" s="145"/>
+      <c r="K94" s="15"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -10275,9 +10438,10 @@
       <c r="G95" s="49"/>
       <c r="H95" s="49"/>
       <c r="I95" s="49"/>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J95" s="145"/>
+      <c r="K95" s="15"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -10287,9 +10451,10 @@
       <c r="G96" s="49"/>
       <c r="H96" s="49"/>
       <c r="I96" s="49"/>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J96" s="145"/>
+      <c r="K96" s="15"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -10299,9 +10464,10 @@
       <c r="G97" s="49"/>
       <c r="H97" s="49"/>
       <c r="I97" s="49"/>
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J97" s="145"/>
+      <c r="K97" s="15"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -10311,9 +10477,10 @@
       <c r="G98" s="49"/>
       <c r="H98" s="49"/>
       <c r="I98" s="49"/>
-      <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="145"/>
+      <c r="K98" s="15"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -10323,9 +10490,10 @@
       <c r="G99" s="49"/>
       <c r="H99" s="49"/>
       <c r="I99" s="49"/>
-      <c r="J99" s="15"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J99" s="145"/>
+      <c r="K99" s="15"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -10335,9 +10503,10 @@
       <c r="G100" s="49"/>
       <c r="H100" s="49"/>
       <c r="I100" s="49"/>
-      <c r="J100" s="15"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J100" s="145"/>
+      <c r="K100" s="15"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -10347,9 +10516,10 @@
       <c r="G101" s="49"/>
       <c r="H101" s="49"/>
       <c r="I101" s="49"/>
-      <c r="J101" s="15"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J101" s="145"/>
+      <c r="K101" s="15"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -10359,9 +10529,10 @@
       <c r="G102" s="49"/>
       <c r="H102" s="49"/>
       <c r="I102" s="49"/>
-      <c r="J102" s="15"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J102" s="145"/>
+      <c r="K102" s="15"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -10371,9 +10542,10 @@
       <c r="G103" s="49"/>
       <c r="H103" s="49"/>
       <c r="I103" s="49"/>
-      <c r="J103" s="15"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J103" s="145"/>
+      <c r="K103" s="15"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -10383,9 +10555,10 @@
       <c r="G104" s="49"/>
       <c r="H104" s="49"/>
       <c r="I104" s="49"/>
-      <c r="J104" s="15"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="145"/>
+      <c r="K104" s="15"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -10395,9 +10568,10 @@
       <c r="G105" s="49"/>
       <c r="H105" s="49"/>
       <c r="I105" s="49"/>
-      <c r="J105" s="15"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="145"/>
+      <c r="K105" s="15"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -10407,9 +10581,10 @@
       <c r="G106" s="49"/>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
-      <c r="J106" s="15"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J106" s="145"/>
+      <c r="K106" s="15"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -10419,9 +10594,10 @@
       <c r="G107" s="49"/>
       <c r="H107" s="49"/>
       <c r="I107" s="49"/>
-      <c r="J107" s="15"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J107" s="145"/>
+      <c r="K107" s="15"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -10431,9 +10607,10 @@
       <c r="G108" s="49"/>
       <c r="H108" s="49"/>
       <c r="I108" s="49"/>
-      <c r="J108" s="15"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J108" s="145"/>
+      <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -10443,9 +10620,10 @@
       <c r="G109" s="49"/>
       <c r="H109" s="49"/>
       <c r="I109" s="49"/>
-      <c r="J109" s="15"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J109" s="145"/>
+      <c r="K109" s="15"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -10455,9 +10633,10 @@
       <c r="G110" s="49"/>
       <c r="H110" s="49"/>
       <c r="I110" s="49"/>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J110" s="145"/>
+      <c r="K110" s="15"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -10467,9 +10646,10 @@
       <c r="G111" s="49"/>
       <c r="H111" s="49"/>
       <c r="I111" s="49"/>
-      <c r="J111" s="15"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J111" s="145"/>
+      <c r="K111" s="15"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -10479,9 +10659,10 @@
       <c r="G112" s="49"/>
       <c r="H112" s="49"/>
       <c r="I112" s="49"/>
-      <c r="J112" s="15"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J112" s="145"/>
+      <c r="K112" s="15"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -10491,9 +10672,10 @@
       <c r="G113" s="49"/>
       <c r="H113" s="49"/>
       <c r="I113" s="49"/>
-      <c r="J113" s="15"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="145"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -10503,9 +10685,10 @@
       <c r="G114" s="49"/>
       <c r="H114" s="49"/>
       <c r="I114" s="49"/>
-      <c r="J114" s="15"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="145"/>
+      <c r="K114" s="15"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -10515,9 +10698,10 @@
       <c r="G115" s="49"/>
       <c r="H115" s="49"/>
       <c r="I115" s="49"/>
-      <c r="J115" s="15"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J115" s="145"/>
+      <c r="K115" s="15"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -10527,9 +10711,10 @@
       <c r="G116" s="49"/>
       <c r="H116" s="49"/>
       <c r="I116" s="49"/>
-      <c r="J116" s="15"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J116" s="145"/>
+      <c r="K116" s="15"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -10539,9 +10724,10 @@
       <c r="G117" s="49"/>
       <c r="H117" s="49"/>
       <c r="I117" s="49"/>
-      <c r="J117" s="15"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="145"/>
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -10551,9 +10737,10 @@
       <c r="G118" s="49"/>
       <c r="H118" s="49"/>
       <c r="I118" s="49"/>
-      <c r="J118" s="15"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J118" s="145"/>
+      <c r="K118" s="15"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -10563,9 +10750,10 @@
       <c r="G119" s="49"/>
       <c r="H119" s="49"/>
       <c r="I119" s="49"/>
-      <c r="J119" s="15"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J119" s="145"/>
+      <c r="K119" s="15"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -10575,9 +10763,10 @@
       <c r="G120" s="49"/>
       <c r="H120" s="49"/>
       <c r="I120" s="49"/>
-      <c r="J120" s="15"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J120" s="145"/>
+      <c r="K120" s="15"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -10587,9 +10776,10 @@
       <c r="G121" s="49"/>
       <c r="H121" s="49"/>
       <c r="I121" s="49"/>
-      <c r="J121" s="15"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J121" s="145"/>
+      <c r="K121" s="15"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -10599,9 +10789,10 @@
       <c r="G122" s="49"/>
       <c r="H122" s="49"/>
       <c r="I122" s="49"/>
-      <c r="J122" s="15"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J122" s="145"/>
+      <c r="K122" s="15"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -10611,10 +10802,11 @@
       <c r="G123" s="49"/>
       <c r="H123" s="49"/>
       <c r="I123" s="49"/>
-      <c r="J123" s="15"/>
+      <c r="J123" s="145"/>
+      <c r="K123" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J30" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A4:K30" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
     <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
@@ -10639,12 +10831,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="7">
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10666,10 +10858,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10679,38 +10871,41 @@
     <col min="3" max="3" width="17.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="420" customWidth="1"/>
     <col min="5" max="8" width="21.42578125" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="9" max="9" width="21.42578125" style="141" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="546" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="548" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="549" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -10719,10 +10914,11 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="47"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -10741,29 +10937,33 @@
       <c r="F4" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="537" t="s">
+      <c r="G4" s="539" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="537"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="539"/>
+      <c r="I4" s="532" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="548" t="s">
+    <row r="5" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="550" t="s">
         <v>1195</v>
       </c>
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
-      <c r="D5" s="548"/>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B5" s="550"/>
+      <c r="C5" s="550"/>
+      <c r="D5" s="550"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="550"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="465" t="s">
         <v>1001</v>
       </c>
@@ -10790,11 +10990,14 @@
         <f>E6*(1+3.1/100)^((MID(F6,FIND("-",F6)+1,255)+0)-2016)</f>
         <v>41613856.235419914</v>
       </c>
-      <c r="I6" s="466">
+      <c r="I6" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J6" s="466">
         <v>1116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="465" t="s">
         <v>279</v>
       </c>
@@ -10821,11 +11024,14 @@
         <f>E7*(1+3.1/100)^((MID(F7,FIND("-",F7)+1,255)+0)-2016)</f>
         <v>124841568.70625974</v>
       </c>
-      <c r="I7" s="467">
+      <c r="I7" s="554" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J7" s="467">
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>310</v>
@@ -10844,15 +11050,16 @@
         <f t="shared" ref="H8" si="0">SUM(H6:H7)</f>
         <v>166455424.94167966</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="48"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F9" s="141"/>
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
         <v>334</v>
       </c>
@@ -10869,9 +11076,10 @@
         <f t="shared" si="1"/>
         <v>166455424.94167966</v>
       </c>
+      <c r="I10" s="142"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:I8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A4:J8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <customSheetViews>
     <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
@@ -10896,9 +11104,9 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10945,36 +11153,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="548" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
-      <c r="L1" s="546"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="549" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -11015,10 +11223,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="534" t="s">
+      <c r="I4" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="534"/>
+      <c r="J4" s="536"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -11036,20 +11244,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="542" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="540"/>
-      <c r="C5" s="540"/>
-      <c r="D5" s="540"/>
-      <c r="E5" s="540"/>
-      <c r="F5" s="540"/>
-      <c r="G5" s="540"/>
-      <c r="H5" s="540"/>
-      <c r="I5" s="540"/>
-      <c r="J5" s="540"/>
-      <c r="K5" s="540"/>
-      <c r="L5" s="540"/>
+      <c r="B5" s="542"/>
+      <c r="C5" s="542"/>
+      <c r="D5" s="542"/>
+      <c r="E5" s="542"/>
+      <c r="F5" s="542"/>
+      <c r="G5" s="542"/>
+      <c r="H5" s="542"/>
+      <c r="I5" s="542"/>
+      <c r="J5" s="542"/>
+      <c r="K5" s="542"/>
+      <c r="L5" s="542"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
@@ -12650,10 +12858,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="534" t="s">
+      <c r="H1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="534"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -12671,19 +12879,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="542" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
       <c r="N2" s="166"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -13022,8 +13230,8 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13065,10 +13273,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="534" t="s">
+      <c r="H1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="534"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -13086,19 +13294,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="542" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
       <c r="L2" s="392"/>
     </row>
     <row r="3" spans="1:14" s="126" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -14189,10 +14397,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="534" t="s">
+      <c r="H1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="534"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -14211,19 +14419,19 @@
       <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="542" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -17678,35 +17886,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="548" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
       <c r="N1" s="421"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="549" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
       <c r="N2" s="421"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17745,10 +17953,10 @@
       <c r="G4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="534" t="s">
+      <c r="H4" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="534"/>
+      <c r="I4" s="536"/>
       <c r="J4" s="73" t="s">
         <v>2</v>
       </c>
@@ -17766,19 +17974,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="545" t="s">
+      <c r="A5" s="547" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="545"/>
-      <c r="C5" s="545"/>
-      <c r="D5" s="545"/>
-      <c r="E5" s="545"/>
-      <c r="F5" s="545"/>
-      <c r="G5" s="545"/>
-      <c r="H5" s="545"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="545"/>
+      <c r="B5" s="547"/>
+      <c r="C5" s="547"/>
+      <c r="D5" s="547"/>
+      <c r="E5" s="547"/>
+      <c r="F5" s="547"/>
+      <c r="G5" s="547"/>
+      <c r="H5" s="547"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="547"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="284" t="s">
@@ -18410,10 +18618,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="539" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="539"/>
       <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
@@ -18431,20 +18639,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="538" t="s">
+      <c r="A2" s="540" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="538"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="538"/>
-      <c r="E2" s="538"/>
-      <c r="F2" s="538"/>
-      <c r="G2" s="538"/>
-      <c r="H2" s="538"/>
-      <c r="I2" s="538"/>
-      <c r="J2" s="538"/>
-      <c r="K2" s="538"/>
-      <c r="L2" s="538"/>
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
+      <c r="G2" s="540"/>
+      <c r="H2" s="540"/>
+      <c r="I2" s="540"/>
+      <c r="J2" s="540"/>
+      <c r="K2" s="540"/>
+      <c r="L2" s="540"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -18701,10 +18909,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="534" t="s">
+      <c r="I1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="534"/>
+      <c r="J1" s="536"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -18723,20 +18931,20 @@
       <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="547" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
-      <c r="L2" s="545"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
+      <c r="L2" s="547"/>
       <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -19031,10 +19239,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="534" t="s">
+      <c r="H1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="534"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19053,19 +19261,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="547" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
       <c r="L2" s="421" t="s">
         <v>1243</v>
       </c>
@@ -19280,10 +19488,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="534" t="s">
+      <c r="H1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="534"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19302,19 +19510,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="547" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="545"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="547"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="297" t="s">
@@ -19736,10 +19944,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="539" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="539"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -19757,20 +19965,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="539" t="s">
+      <c r="A2" s="541" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="539"/>
-      <c r="C2" s="539"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="539"/>
-      <c r="F2" s="539"/>
-      <c r="G2" s="539"/>
-      <c r="H2" s="539"/>
-      <c r="I2" s="539"/>
-      <c r="J2" s="539"/>
-      <c r="K2" s="539"/>
-      <c r="L2" s="539"/>
+      <c r="B2" s="541"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="541"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -20992,10 +21200,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="534" t="s">
+      <c r="I1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="534"/>
+      <c r="J1" s="536"/>
       <c r="K1" s="61" t="s">
         <v>2</v>
       </c>
@@ -21014,20 +21222,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="542" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
     </row>
     <row r="3" spans="1:16" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
@@ -22539,10 +22747,10 @@
       <c r="H1" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="534" t="s">
+      <c r="I1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="534"/>
+      <c r="J1" s="536"/>
       <c r="K1" s="163" t="s">
         <v>2</v>
       </c>
@@ -22560,20 +22768,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="543" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
-      <c r="G2" s="541"/>
-      <c r="H2" s="541"/>
-      <c r="I2" s="541"/>
-      <c r="J2" s="541"/>
-      <c r="K2" s="541"/>
-      <c r="L2" s="541"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
+      <c r="L2" s="543"/>
       <c r="M2" s="241"/>
       <c r="N2" s="241"/>
       <c r="O2" s="241"/>
@@ -24803,10 +25011,10 @@
       <c r="G1" s="65" t="s">
         <v>1215</v>
       </c>
-      <c r="H1" s="534" t="s">
+      <c r="H1" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="534"/>
+      <c r="I1" s="536"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -24821,19 +25029,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="544" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="544"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="546"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -25980,10 +26188,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="539" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="539"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -25993,20 +26201,20 @@
       <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="539" t="s">
+      <c r="A2" s="541" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="539"/>
-      <c r="C2" s="539"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="539"/>
-      <c r="F2" s="539"/>
-      <c r="G2" s="539"/>
-      <c r="H2" s="539"/>
-      <c r="I2" s="539"/>
-      <c r="J2" s="539"/>
-      <c r="K2" s="539"/>
-      <c r="L2" s="539"/>
+      <c r="B2" s="541"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="541"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -26236,36 +26444,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="548" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
-      <c r="L1" s="546"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="549" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -26306,10 +26514,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="534" t="s">
+      <c r="I4" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="534"/>
+      <c r="J4" s="536"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -26327,20 +26535,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="545" t="s">
+      <c r="A5" s="547" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="545"/>
-      <c r="C5" s="545"/>
-      <c r="D5" s="545"/>
-      <c r="E5" s="545"/>
-      <c r="F5" s="545"/>
-      <c r="G5" s="545"/>
-      <c r="H5" s="545"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="545"/>
-      <c r="L5" s="545"/>
+      <c r="B5" s="547"/>
+      <c r="C5" s="547"/>
+      <c r="D5" s="547"/>
+      <c r="E5" s="547"/>
+      <c r="F5" s="547"/>
+      <c r="G5" s="547"/>
+      <c r="H5" s="547"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="547"/>
+      <c r="L5" s="547"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="368"/>
@@ -27948,36 +28156,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="548" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
-      <c r="F1" s="546"/>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
-      <c r="K1" s="546"/>
-      <c r="L1" s="546"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="549" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151"/>
@@ -28018,10 +28226,10 @@
       <c r="H4" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="534" t="s">
+      <c r="I4" s="536" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="534"/>
+      <c r="J4" s="536"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -28039,20 +28247,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="545" t="s">
+      <c r="A5" s="547" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="545"/>
-      <c r="C5" s="545"/>
-      <c r="D5" s="545"/>
-      <c r="E5" s="545"/>
-      <c r="F5" s="545"/>
-      <c r="G5" s="545"/>
-      <c r="H5" s="545"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="545"/>
-      <c r="L5" s="545"/>
+      <c r="B5" s="547"/>
+      <c r="C5" s="547"/>
+      <c r="D5" s="547"/>
+      <c r="E5" s="547"/>
+      <c r="F5" s="547"/>
+      <c r="G5" s="547"/>
+      <c r="H5" s="547"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="547"/>
+      <c r="L5" s="547"/>
     </row>
     <row r="6" spans="1:15" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">

--- a/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
+++ b/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\GitHub\RTP\projlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AE5B38-31A2-4E10-9798-301F837120C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7DAF18-F8B0-41CE-8508-C001A3224FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Constrained - Arterial Lin" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$K$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Auto Constrained - Added Freewa'!$A$1:$O$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Auto Constrained - Arterial Cap'!$A$1:$O$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Auto Constrained - Arterial Lin'!$A$1:$O$12</definedName>
@@ -81,7 +81,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="18">'Bike Illustrative - woutRD'!$A$1:$N$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="21">'Bike Illustrative onstreet wout'!$A$1:$N$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'Transit Constrained'!$A$1:$K$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'Transit Illustrative'!$A$1:$J$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'Transit Illustrative'!$A$1:$K$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -126,7 +126,7 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$K$8</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$A$1:$L$7</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$A$1:$L$27</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$A$1:$L$12</definedName>
@@ -148,7 +148,7 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$1:$K$19</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$10</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$K$32</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$J$10</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$K$10</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -192,7 +192,7 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$K$8</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$A$1:$L$7</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$A$1:$L$27</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$A$1:$L$12</definedName>
@@ -214,7 +214,7 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$1:$K$19</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$10</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$K$32</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$J$10</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$K$10</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -258,7 +258,7 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$4:$K$17</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$6</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="12" hidden="1">'Transit Constrained'!$A$4:$K$30</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$J$8</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="13" hidden="1">'Transit Illustrative'!$A$4:$K$8</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$A$1:$L$7</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$A$1:$L$27</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$A$1:$L$12</definedName>
@@ -280,7 +280,7 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="18" hidden="1">'Bike Illustrative - woutRD'!$A$1:$K$19</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="21" hidden="1">'Bike Illustrative onstreet wout'!$A$1:$K$10</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="12" hidden="1">'Transit Constrained'!$A$1:$K$32</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$J$10</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="13" hidden="1">'Transit Illustrative'!$A$1:$K$10</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="1" hidden="1">'Auto Constrained - Added Freewa'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="2" hidden="1">'Auto Constrained - Arterial Cap'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="0" hidden="1">'Auto Constrained - Arterial Lin'!$4:$4</definedName>
@@ -306,9 +306,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="THOMPSON Paul E - Personal View" guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" tabRatio="742" activeSheetId="1"/>
+    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
     <customWorkbookView name="Lane County - Personal View" guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="705" tabRatio="742" activeSheetId="5"/>
-    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
-    <customWorkbookView name="THOMPSON Paul E - Personal View" guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" tabRatio="742" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1245">
   <si>
     <t>Name</t>
   </si>
@@ -6700,6 +6700,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6759,9 +6762,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -7116,8 +7116,8 @@
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="H5" zoomScaleNormal="100" zoomScaleSheetLayoutView="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7141,38 +7141,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="534" t="s">
+      <c r="A1" s="535" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="534"/>
-      <c r="C1" s="534"/>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
-      <c r="L1" s="534"/>
+      <c r="B1" s="535"/>
+      <c r="C1" s="535"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
+      <c r="L1" s="535"/>
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="535" t="s">
+      <c r="A2" s="536" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="535"/>
-      <c r="C2" s="535"/>
-      <c r="D2" s="535"/>
-      <c r="E2" s="535"/>
-      <c r="F2" s="535"/>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-      <c r="L2" s="535"/>
+      <c r="B2" s="536"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="536"/>
+      <c r="E2" s="536"/>
+      <c r="F2" s="536"/>
+      <c r="G2" s="536"/>
+      <c r="H2" s="536"/>
+      <c r="I2" s="536"/>
+      <c r="J2" s="536"/>
+      <c r="K2" s="536"/>
+      <c r="L2" s="536"/>
     </row>
     <row r="3" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -7213,10 +7213,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="536" t="s">
+      <c r="I4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="536"/>
+      <c r="J4" s="537"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -7237,13 +7237,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="537" t="s">
+      <c r="A5" s="538" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="538"/>
+      <c r="B5" s="539"/>
+      <c r="C5" s="539"/>
+      <c r="D5" s="539"/>
+      <c r="E5" s="539"/>
       <c r="F5" s="494"/>
       <c r="G5" s="494"/>
       <c r="H5" s="494"/>
@@ -7469,10 +7469,10 @@
   </sheetData>
   <autoFilter ref="A4:L7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5:K5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7483,10 +7483,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5:K5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7564,10 +7564,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="536" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="536"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -7585,20 +7585,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="548" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
+      <c r="L2" s="548"/>
     </row>
     <row r="3" spans="1:15" s="86" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -7928,10 +7928,10 @@
   </sheetData>
   <autoFilter ref="A1:L10" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7942,10 +7942,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A4" sqref="A4:E4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8021,10 +8021,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="536" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="536"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8043,20 +8043,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="548" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
+      <c r="L2" s="548"/>
     </row>
     <row r="3" spans="1:16" s="85" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -8400,10 +8400,10 @@
   </sheetData>
   <autoFilter ref="A1:L9" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8414,10 +8414,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8494,10 +8494,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="536" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="536"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8515,20 +8515,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="548" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
+      <c r="L2" s="548"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="329" t="s">
@@ -8670,10 +8670,10 @@
   </sheetData>
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8684,10 +8684,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8718,8 +8718,8 @@
   </sheetPr>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8736,34 +8736,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="552" t="s">
+      <c r="A1" s="553" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="552"/>
-      <c r="C1" s="552"/>
-      <c r="D1" s="552"/>
-      <c r="E1" s="552"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="552"/>
-      <c r="H1" s="552"/>
-      <c r="I1" s="552"/>
-      <c r="J1" s="552"/>
-      <c r="K1" s="552"/>
+      <c r="B1" s="553"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
+      <c r="K1" s="553"/>
     </row>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="553" t="s">
+      <c r="A2" s="554" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="553"/>
-      <c r="C2" s="553"/>
-      <c r="D2" s="553"/>
-      <c r="E2" s="553"/>
-      <c r="F2" s="553"/>
-      <c r="G2" s="553"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="553"/>
-      <c r="J2" s="553"/>
-      <c r="K2" s="553"/>
+      <c r="B2" s="554"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
+      <c r="E2" s="554"/>
+      <c r="F2" s="554"/>
+      <c r="G2" s="554"/>
+      <c r="H2" s="554"/>
+      <c r="I2" s="554"/>
+      <c r="J2" s="554"/>
+      <c r="K2" s="554"/>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="412"/>
@@ -8800,10 +8800,10 @@
       <c r="G4" s="411" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="536" t="s">
+      <c r="H4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="537"/>
       <c r="J4" s="533" t="s">
         <v>2</v>
       </c>
@@ -8812,19 +8812,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="550" t="s">
+      <c r="A5" s="551" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="550"/>
-      <c r="C5" s="550"/>
-      <c r="D5" s="550"/>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="550"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="550"/>
+      <c r="B5" s="551"/>
+      <c r="C5" s="551"/>
+      <c r="D5" s="551"/>
+      <c r="E5" s="551"/>
+      <c r="F5" s="551"/>
+      <c r="G5" s="551"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="551"/>
+      <c r="K5" s="551"/>
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="458" t="s">
@@ -8854,7 +8854,7 @@
         <f>F6*(1+3.1/100)^((MID(G6,FIND("-",G6)+1,255)+0)-2016)</f>
         <v>40548773.26699999</v>
       </c>
-      <c r="J6" s="554" t="s">
+      <c r="J6" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K6" s="459">
@@ -8889,7 +8889,7 @@
         <f t="shared" ref="I7:I10" si="1">F7*(1+3.1/100)^((MID(G7,FIND("-",G7)+1,255)+0)-2016)</f>
         <v>53618987.972487517</v>
       </c>
-      <c r="J7" s="554" t="s">
+      <c r="J7" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K7" s="459">
@@ -8924,7 +8924,7 @@
         <f t="shared" si="1"/>
         <v>60974255.381201506</v>
       </c>
-      <c r="J8" s="554" t="s">
+      <c r="J8" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K8" s="459">
@@ -8959,7 +8959,7 @@
         <f t="shared" si="1"/>
         <v>51972933.439455628</v>
       </c>
-      <c r="J9" s="554" t="s">
+      <c r="J9" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K9" s="459">
@@ -8994,7 +8994,7 @@
         <f t="shared" si="1"/>
         <v>62420784.353129871</v>
       </c>
-      <c r="J10" s="554" t="s">
+      <c r="J10" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K10" s="459">
@@ -9026,19 +9026,19 @@
       <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="550" t="s">
+      <c r="A12" s="551" t="s">
         <v>1195</v>
       </c>
-      <c r="B12" s="550"/>
-      <c r="C12" s="550"/>
-      <c r="D12" s="550"/>
-      <c r="E12" s="550"/>
-      <c r="F12" s="550"/>
-      <c r="G12" s="550"/>
-      <c r="H12" s="550"/>
-      <c r="I12" s="550"/>
-      <c r="J12" s="550"/>
-      <c r="K12" s="550"/>
+      <c r="B12" s="551"/>
+      <c r="C12" s="551"/>
+      <c r="D12" s="551"/>
+      <c r="E12" s="551"/>
+      <c r="F12" s="551"/>
+      <c r="G12" s="551"/>
+      <c r="H12" s="551"/>
+      <c r="I12" s="551"/>
+      <c r="J12" s="551"/>
+      <c r="K12" s="551"/>
     </row>
     <row r="13" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="458" t="s">
@@ -9070,7 +9070,7 @@
         <f>F13*(1+3.1/100)^((MID(G13,FIND("-",G13)+1,255)+0)-2016)</f>
         <v>25532851.415470246</v>
       </c>
-      <c r="J13" s="554" t="s">
+      <c r="J13" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K13" s="459">
@@ -9107,7 +9107,7 @@
         <f t="shared" ref="I14:I20" si="4">F14*(1+3.1/100)^((MID(G14,FIND("-",G14)+1,255)+0)-2016)</f>
         <v>29743539.210342199</v>
       </c>
-      <c r="J14" s="554" t="s">
+      <c r="J14" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K14" s="459">
@@ -9144,7 +9144,7 @@
         <f t="shared" si="4"/>
         <v>34648622.292970419</v>
       </c>
-      <c r="J15" s="554" t="s">
+      <c r="J15" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K15" s="459">
@@ -9181,7 +9181,7 @@
         <f t="shared" si="4"/>
         <v>41613856.235419914</v>
       </c>
-      <c r="J16" s="554" t="s">
+      <c r="J16" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K16" s="459">
@@ -9218,7 +9218,7 @@
         <f t="shared" si="4"/>
         <v>76598554.246410742</v>
       </c>
-      <c r="J17" s="554" t="s">
+      <c r="J17" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K17" s="459">
@@ -9255,7 +9255,7 @@
         <f t="shared" si="4"/>
         <v>89230617.631026596</v>
       </c>
-      <c r="J18" s="554" t="s">
+      <c r="J18" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K18" s="459">
@@ -9292,7 +9292,7 @@
         <f t="shared" si="4"/>
         <v>103945866.87891126</v>
       </c>
-      <c r="J19" s="554" t="s">
+      <c r="J19" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K19" s="459">
@@ -9329,7 +9329,7 @@
         <f t="shared" si="4"/>
         <v>124841568.70625974</v>
       </c>
-      <c r="J20" s="554" t="s">
+      <c r="J20" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K20" s="459">
@@ -9361,19 +9361,19 @@
       <c r="K21" s="131"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="550" t="s">
+      <c r="A22" s="551" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="550"/>
-      <c r="C22" s="550"/>
-      <c r="D22" s="550"/>
-      <c r="E22" s="550"/>
-      <c r="F22" s="550"/>
-      <c r="G22" s="550"/>
-      <c r="H22" s="550"/>
-      <c r="I22" s="550"/>
-      <c r="J22" s="550"/>
-      <c r="K22" s="550"/>
+      <c r="B22" s="551"/>
+      <c r="C22" s="551"/>
+      <c r="D22" s="551"/>
+      <c r="E22" s="551"/>
+      <c r="F22" s="551"/>
+      <c r="G22" s="551"/>
+      <c r="H22" s="551"/>
+      <c r="I22" s="551"/>
+      <c r="J22" s="551"/>
+      <c r="K22" s="551"/>
     </row>
     <row r="23" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="458" t="s">
@@ -9405,7 +9405,7 @@
         <f>F23*(1+3.1/100)^((MID(G23,FIND("-",G23)+1,255)+0)-2016)</f>
         <v>16964730.004679997</v>
       </c>
-      <c r="J23" s="554" t="s">
+      <c r="J23" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K23" s="459">
@@ -9442,7 +9442,7 @@
         <f t="shared" ref="I24:I27" si="7">F24*(1+3.1/100)^((MID(G24,FIND("-",G24)+1,255)+0)-2016)</f>
         <v>13992002.575677695</v>
       </c>
-      <c r="J24" s="554" t="s">
+      <c r="J24" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K24" s="459">
@@ -9479,7 +9479,7 @@
         <f t="shared" si="7"/>
         <v>20939451.604080908</v>
       </c>
-      <c r="J25" s="554" t="s">
+      <c r="J25" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K25" s="459">
@@ -9516,7 +9516,7 @@
         <f t="shared" si="7"/>
         <v>9493722.508273894</v>
       </c>
-      <c r="J26" s="554" t="s">
+      <c r="J26" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K26" s="459">
@@ -9551,7 +9551,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J27" s="554" t="s">
+      <c r="J27" s="534" t="s">
         <v>1244</v>
       </c>
       <c r="K27" s="459">
@@ -9583,19 +9583,19 @@
       <c r="K28" s="131"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="551" t="s">
+      <c r="A29" s="552" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="551"/>
-      <c r="C29" s="551"/>
-      <c r="D29" s="551"/>
-      <c r="E29" s="551"/>
-      <c r="F29" s="551"/>
-      <c r="G29" s="551"/>
-      <c r="H29" s="551"/>
-      <c r="I29" s="551"/>
-      <c r="J29" s="551"/>
-      <c r="K29" s="551"/>
+      <c r="B29" s="552"/>
+      <c r="C29" s="552"/>
+      <c r="D29" s="552"/>
+      <c r="E29" s="552"/>
+      <c r="F29" s="552"/>
+      <c r="G29" s="552"/>
+      <c r="H29" s="552"/>
+      <c r="I29" s="552"/>
+      <c r="J29" s="552"/>
+      <c r="K29" s="552"/>
     </row>
     <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="130"/>
@@ -10808,10 +10808,10 @@
   </sheetData>
   <autoFilter ref="A4:K30" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -10822,10 +10822,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -10858,233 +10858,245 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="420" customWidth="1"/>
-    <col min="5" max="8" width="21.42578125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="141" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="25.28515625" style="487" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="420" customWidth="1"/>
+    <col min="6" max="9" width="21.42578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="141" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="548" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="549" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="549" t="s">
+      <c r="B1" s="549"/>
+      <c r="C1" s="549"/>
+      <c r="D1" s="549"/>
+      <c r="E1" s="549"/>
+      <c r="F1" s="549"/>
+      <c r="G1" s="549"/>
+      <c r="H1" s="549"/>
+      <c r="I1" s="549"/>
+      <c r="J1" s="549"/>
+      <c r="K1" s="549"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="550" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="550"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="47"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="47"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="462" t="s">
+      <c r="E4" s="462" t="s">
         <v>1136</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="539" t="s">
+      <c r="H4" s="540" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="539"/>
-      <c r="I4" s="532" t="s">
+      <c r="I4" s="540"/>
+      <c r="J4" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="550" t="s">
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="551" t="s">
         <v>1195</v>
       </c>
-      <c r="B5" s="550"/>
-      <c r="C5" s="550"/>
-      <c r="D5" s="550"/>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="550"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B5" s="551"/>
+      <c r="C5" s="551"/>
+      <c r="D5" s="551"/>
+      <c r="E5" s="551"/>
+      <c r="F5" s="551"/>
+      <c r="G5" s="551"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="551"/>
+      <c r="K5" s="551"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="465" t="s">
         <v>1001</v>
       </c>
       <c r="B6" s="465" t="s">
         <v>1222</v>
       </c>
-      <c r="C6" s="465" t="s">
+      <c r="C6" s="465"/>
+      <c r="D6" s="465" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="460" t="s">
+      <c r="E6" s="460" t="s">
         <v>1190</v>
       </c>
-      <c r="E6" s="455">
+      <c r="F6" s="455">
         <v>20000000</v>
       </c>
-      <c r="F6" s="463" t="s">
+      <c r="G6" s="463" t="s">
         <v>347</v>
       </c>
-      <c r="G6" s="463">
-        <f>E6*(1+3.1/100)^((LEFT(F6,FIND("-",F6)-1)+0)-2016)</f>
+      <c r="H6" s="463">
+        <f>F6*(1+3.1/100)^((LEFT(G6,FIND("-",G6)-1)+0)-2016)</f>
         <v>35722729.584052496</v>
       </c>
-      <c r="H6" s="463">
-        <f>E6*(1+3.1/100)^((MID(F6,FIND("-",F6)+1,255)+0)-2016)</f>
+      <c r="I6" s="463">
+        <f>F6*(1+3.1/100)^((MID(G6,FIND("-",G6)+1,255)+0)-2016)</f>
         <v>41613856.235419914</v>
       </c>
-      <c r="I6" s="554" t="s">
+      <c r="J6" s="534" t="s">
         <v>1244</v>
       </c>
-      <c r="J6" s="466">
+      <c r="K6" s="466">
         <v>1116</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="465" t="s">
         <v>279</v>
       </c>
       <c r="B7" s="465" t="s">
         <v>1222</v>
       </c>
-      <c r="C7" s="461" t="s">
+      <c r="C7" s="465"/>
+      <c r="D7" s="461" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="460" t="s">
+      <c r="E7" s="460" t="s">
         <v>1191</v>
       </c>
-      <c r="E7" s="455">
+      <c r="F7" s="455">
         <v>60000000</v>
       </c>
-      <c r="F7" s="463" t="s">
+      <c r="G7" s="463" t="s">
         <v>347</v>
       </c>
-      <c r="G7" s="463">
-        <f>E7*(1+3.1/100)^((LEFT(F7,FIND("-",F7)-1)+0)-2016)</f>
+      <c r="H7" s="463">
+        <f>F7*(1+3.1/100)^((LEFT(G7,FIND("-",G7)-1)+0)-2016)</f>
         <v>107168188.75215749</v>
       </c>
-      <c r="H7" s="463">
-        <f>E7*(1+3.1/100)^((MID(F7,FIND("-",F7)+1,255)+0)-2016)</f>
+      <c r="I7" s="463">
+        <f>F7*(1+3.1/100)^((MID(G7,FIND("-",G7)+1,255)+0)-2016)</f>
         <v>124841568.70625974</v>
       </c>
-      <c r="I7" s="554" t="s">
+      <c r="J7" s="534" t="s">
         <v>1244</v>
       </c>
-      <c r="J7" s="467">
+      <c r="K7" s="467">
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="48">
-        <f>SUM(E6:E7)</f>
+      <c r="C8" s="127"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="48">
+        <f>SUM(F6:F7)</f>
         <v>80000000</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48">
-        <f>SUM(G6:G7)</f>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48">
+        <f>SUM(H6:H7)</f>
         <v>142890918.33620998</v>
       </c>
-      <c r="H8" s="48">
-        <f t="shared" ref="H8" si="0">SUM(H6:H7)</f>
+      <c r="I8" s="48">
+        <f t="shared" ref="I8" si="0">SUM(I6:I7)</f>
         <v>166455424.94167966</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F9" s="141"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I9" s="141"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="142">
-        <f>E8</f>
+      <c r="C10" s="135"/>
+      <c r="F10" s="142">
+        <f>F8</f>
         <v>80000000</v>
       </c>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142">
-        <f t="shared" ref="G10:H10" si="1">G8</f>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142">
+        <f t="shared" ref="H10:I10" si="1">H8</f>
         <v>142890918.33620998</v>
       </c>
-      <c r="H10" s="142">
+      <c r="I10" s="142">
         <f t="shared" si="1"/>
         <v>166455424.94167966</v>
       </c>
-      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A4:K8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -11095,23 +11107,23 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G7" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>YearBands</formula1>
     </dataValidation>
   </dataValidations>
@@ -11153,36 +11165,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="548" t="s">
+      <c r="A1" s="549" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
+      <c r="B1" s="549"/>
+      <c r="C1" s="549"/>
+      <c r="D1" s="549"/>
+      <c r="E1" s="549"/>
+      <c r="F1" s="549"/>
+      <c r="G1" s="549"/>
+      <c r="H1" s="549"/>
+      <c r="I1" s="549"/>
+      <c r="J1" s="549"/>
+      <c r="K1" s="549"/>
+      <c r="L1" s="549"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="550" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549"/>
-      <c r="L2" s="549"/>
+      <c r="B2" s="550"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="550"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -11223,10 +11235,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="536" t="s">
+      <c r="I4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="536"/>
+      <c r="J4" s="537"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -11244,20 +11256,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="542" t="s">
+      <c r="A5" s="543" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="542"/>
-      <c r="C5" s="542"/>
-      <c r="D5" s="542"/>
-      <c r="E5" s="542"/>
-      <c r="F5" s="542"/>
-      <c r="G5" s="542"/>
-      <c r="H5" s="542"/>
-      <c r="I5" s="542"/>
-      <c r="J5" s="542"/>
-      <c r="K5" s="542"/>
-      <c r="L5" s="542"/>
+      <c r="B5" s="543"/>
+      <c r="C5" s="543"/>
+      <c r="D5" s="543"/>
+      <c r="E5" s="543"/>
+      <c r="F5" s="543"/>
+      <c r="G5" s="543"/>
+      <c r="H5" s="543"/>
+      <c r="I5" s="543"/>
+      <c r="J5" s="543"/>
+      <c r="K5" s="543"/>
+      <c r="L5" s="543"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
@@ -12762,10 +12774,10 @@
   </sheetData>
   <autoFilter ref="A4:L37" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="F10" sqref="F10"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -12776,10 +12788,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="F10" sqref="F10"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -12858,10 +12870,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="536" t="s">
+      <c r="H1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="536"/>
+      <c r="I1" s="537"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -12879,19 +12891,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="543" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
       <c r="N2" s="166"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -13181,10 +13193,10 @@
   </sheetData>
   <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -13195,10 +13207,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -13273,10 +13285,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="536" t="s">
+      <c r="H1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="536"/>
+      <c r="I1" s="537"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -13294,19 +13306,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="543" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
       <c r="L2" s="392"/>
     </row>
     <row r="3" spans="1:14" s="126" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -14307,10 +14319,10 @@
   </sheetData>
   <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -14321,10 +14333,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -14397,10 +14409,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="536" t="s">
+      <c r="H1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="536"/>
+      <c r="I1" s="537"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -14419,19 +14431,19 @@
       <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="543" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -17816,10 +17828,10 @@
   </sheetData>
   <autoFilter ref="A1:K75" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
-      <selection activeCell="A39" sqref="A39"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -17830,10 +17842,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
+      <selection activeCell="A39" sqref="A39"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -17886,35 +17898,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="548" t="s">
+      <c r="A1" s="549" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
+      <c r="B1" s="549"/>
+      <c r="C1" s="549"/>
+      <c r="D1" s="549"/>
+      <c r="E1" s="549"/>
+      <c r="F1" s="549"/>
+      <c r="G1" s="549"/>
+      <c r="H1" s="549"/>
+      <c r="I1" s="549"/>
+      <c r="J1" s="549"/>
+      <c r="K1" s="549"/>
       <c r="N1" s="421"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="550" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549"/>
+      <c r="B2" s="550"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
       <c r="N2" s="421"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17953,10 +17965,10 @@
       <c r="G4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="536" t="s">
+      <c r="H4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="536"/>
+      <c r="I4" s="537"/>
       <c r="J4" s="73" t="s">
         <v>2</v>
       </c>
@@ -17974,19 +17986,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="547" t="s">
+      <c r="A5" s="548" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="547"/>
-      <c r="C5" s="547"/>
-      <c r="D5" s="547"/>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="547"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="547"/>
+      <c r="B5" s="548"/>
+      <c r="C5" s="548"/>
+      <c r="D5" s="548"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="548"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="548"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="284" t="s">
@@ -18524,10 +18536,10 @@
   </sheetData>
   <autoFilter ref="A4:K17" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
-      <selection activeCell="B6" sqref="B6:L6"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18538,10 +18550,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
+      <selection activeCell="B6" sqref="B6:L6"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18618,10 +18630,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="539" t="s">
+      <c r="I1" s="540" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="539"/>
+      <c r="J1" s="540"/>
       <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
@@ -18639,20 +18651,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="541" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="G2" s="540"/>
-      <c r="H2" s="540"/>
-      <c r="I2" s="540"/>
-      <c r="J2" s="540"/>
-      <c r="K2" s="540"/>
-      <c r="L2" s="540"/>
+      <c r="B2" s="541"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="541"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -18815,10 +18827,10 @@
   </sheetData>
   <autoFilter ref="A1:L5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="L3" sqref="L3"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18829,10 +18841,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="L3" sqref="L3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18909,10 +18921,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="536" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="536"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -18931,20 +18943,20 @@
       <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="548" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
-      <c r="L2" s="547"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
+      <c r="L2" s="548"/>
       <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -19149,10 +19161,10 @@
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="I34" sqref="I34"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19163,10 +19175,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="I34" sqref="I34"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19239,10 +19251,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="536" t="s">
+      <c r="H1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="536"/>
+      <c r="I1" s="537"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19261,19 +19273,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="548" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
       <c r="L2" s="421" t="s">
         <v>1243</v>
       </c>
@@ -19398,10 +19410,10 @@
   </sheetData>
   <autoFilter ref="A1:K5" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19412,10 +19424,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19488,10 +19500,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="536" t="s">
+      <c r="H1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="536"/>
+      <c r="I1" s="537"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19510,19 +19522,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="548" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="547"/>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="547"/>
-      <c r="K2" s="547"/>
+      <c r="B2" s="548"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="548"/>
+      <c r="F2" s="548"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
+      <c r="K2" s="548"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="297" t="s">
@@ -19711,10 +19723,10 @@
   </sheetData>
   <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19725,10 +19737,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19853,8 +19865,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
-      <selection activeCell="D15" sqref="D14:D15"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -19869,7 +19880,8 @@
         <oddFooter>&amp;R&amp;"Arial,Italic"&amp;8&amp;Z&amp;F</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
+      <selection activeCell="D15" sqref="D14:D15"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
@@ -19944,10 +19956,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="539" t="s">
+      <c r="I1" s="540" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="539"/>
+      <c r="J1" s="540"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -19965,20 +19977,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="542" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
-      <c r="G2" s="541"/>
-      <c r="H2" s="541"/>
-      <c r="I2" s="541"/>
-      <c r="J2" s="541"/>
-      <c r="K2" s="541"/>
-      <c r="L2" s="541"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -21106,10 +21118,10 @@
   </sheetData>
   <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="B37" sqref="B37"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -21120,10 +21132,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="B37" sqref="B37"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -21200,10 +21212,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="536" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="536"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="61" t="s">
         <v>2</v>
       </c>
@@ -21222,20 +21234,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="543" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
+      <c r="L2" s="543"/>
     </row>
     <row r="3" spans="1:16" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
@@ -22653,10 +22665,10 @@
   </sheetData>
   <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -22667,10 +22679,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -22747,10 +22759,10 @@
       <c r="H1" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="536" t="s">
+      <c r="I1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="536"/>
+      <c r="J1" s="537"/>
       <c r="K1" s="163" t="s">
         <v>2</v>
       </c>
@@ -22768,20 +22780,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="544" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="543"/>
-      <c r="L2" s="543"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
+      <c r="K2" s="544"/>
+      <c r="L2" s="544"/>
       <c r="M2" s="241"/>
       <c r="N2" s="241"/>
       <c r="O2" s="241"/>
@@ -24920,10 +24932,10 @@
   </sheetData>
   <autoFilter ref="A1:L47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -24935,10 +24947,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -25011,10 +25023,10 @@
       <c r="G1" s="65" t="s">
         <v>1215</v>
       </c>
-      <c r="H1" s="536" t="s">
+      <c r="H1" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="536"/>
+      <c r="I1" s="537"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -25029,19 +25041,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="544" t="s">
+      <c r="A2" s="545" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
-      <c r="G2" s="545"/>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="546"/>
+      <c r="B2" s="546"/>
+      <c r="C2" s="546"/>
+      <c r="D2" s="546"/>
+      <c r="E2" s="546"/>
+      <c r="F2" s="546"/>
+      <c r="G2" s="546"/>
+      <c r="H2" s="546"/>
+      <c r="I2" s="546"/>
+      <c r="J2" s="546"/>
+      <c r="K2" s="547"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -26097,10 +26109,10 @@
   </sheetData>
   <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
-      <selection activeCell="C21" sqref="C21"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26111,10 +26123,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
+      <selection activeCell="C21" sqref="C21"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26188,10 +26200,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="539" t="s">
+      <c r="I1" s="540" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="539"/>
+      <c r="J1" s="540"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -26201,20 +26213,20 @@
       <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="542" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
-      <c r="G2" s="541"/>
-      <c r="H2" s="541"/>
-      <c r="I2" s="541"/>
-      <c r="J2" s="541"/>
-      <c r="K2" s="541"/>
-      <c r="L2" s="541"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -26374,10 +26386,10 @@
   </sheetData>
   <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26388,10 +26400,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26444,36 +26456,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="548" t="s">
+      <c r="A1" s="549" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
+      <c r="B1" s="549"/>
+      <c r="C1" s="549"/>
+      <c r="D1" s="549"/>
+      <c r="E1" s="549"/>
+      <c r="F1" s="549"/>
+      <c r="G1" s="549"/>
+      <c r="H1" s="549"/>
+      <c r="I1" s="549"/>
+      <c r="J1" s="549"/>
+      <c r="K1" s="549"/>
+      <c r="L1" s="549"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="550" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549"/>
-      <c r="L2" s="549"/>
+      <c r="B2" s="550"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="550"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -26514,10 +26526,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="536" t="s">
+      <c r="I4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="536"/>
+      <c r="J4" s="537"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -26535,20 +26547,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="547" t="s">
+      <c r="A5" s="548" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="547"/>
-      <c r="C5" s="547"/>
-      <c r="D5" s="547"/>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="547"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="547"/>
+      <c r="B5" s="548"/>
+      <c r="C5" s="548"/>
+      <c r="D5" s="548"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="548"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="548"/>
+      <c r="L5" s="548"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="368"/>
@@ -28084,10 +28096,10 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -28098,10 +28110,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C25" sqref="C25"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -28156,36 +28168,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="548" t="s">
+      <c r="A1" s="549" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="548"/>
-      <c r="C1" s="548"/>
-      <c r="D1" s="548"/>
-      <c r="E1" s="548"/>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
-      <c r="H1" s="548"/>
-      <c r="I1" s="548"/>
-      <c r="J1" s="548"/>
-      <c r="K1" s="548"/>
-      <c r="L1" s="548"/>
+      <c r="B1" s="549"/>
+      <c r="C1" s="549"/>
+      <c r="D1" s="549"/>
+      <c r="E1" s="549"/>
+      <c r="F1" s="549"/>
+      <c r="G1" s="549"/>
+      <c r="H1" s="549"/>
+      <c r="I1" s="549"/>
+      <c r="J1" s="549"/>
+      <c r="K1" s="549"/>
+      <c r="L1" s="549"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="550" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549"/>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549"/>
-      <c r="L2" s="549"/>
+      <c r="B2" s="550"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="550"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151"/>
@@ -28226,10 +28238,10 @@
       <c r="H4" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="536" t="s">
+      <c r="I4" s="537" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="536"/>
+      <c r="J4" s="537"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -28247,20 +28259,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="547" t="s">
+      <c r="A5" s="548" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="547"/>
-      <c r="C5" s="547"/>
-      <c r="D5" s="547"/>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="547"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="547"/>
+      <c r="B5" s="548"/>
+      <c r="C5" s="548"/>
+      <c r="D5" s="548"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="548"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="548"/>
+      <c r="L5" s="548"/>
     </row>
     <row r="6" spans="1:15" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">

--- a/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
+++ b/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\GitHub\RTP\projlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7DAF18-F8B0-41CE-8508-C001A3224FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FA0D8-03AE-47E9-AA6A-D0D9A472060A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Constrained - Arterial Lin" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Lane County - Personal View" guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="705" tabRatio="742" activeSheetId="5"/>
+    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
     <customWorkbookView name="THOMPSON Paul E - Personal View" guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" tabRatio="742" activeSheetId="1"/>
-    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
-    <customWorkbookView name="Lane County - Personal View" guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="705" tabRatio="742" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="1245">
   <si>
     <t>Name</t>
   </si>
@@ -5249,7 +5249,7 @@
     <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="555">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6702,6 +6702,9 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7141,38 +7144,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="535" t="s">
+      <c r="A1" s="536" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="535"/>
-      <c r="C1" s="535"/>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
+      <c r="B1" s="536"/>
+      <c r="C1" s="536"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
+      <c r="L1" s="536"/>
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="536" t="s">
+      <c r="A2" s="537" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="536"/>
-      <c r="C2" s="536"/>
-      <c r="D2" s="536"/>
-      <c r="E2" s="536"/>
-      <c r="F2" s="536"/>
-      <c r="G2" s="536"/>
-      <c r="H2" s="536"/>
-      <c r="I2" s="536"/>
-      <c r="J2" s="536"/>
-      <c r="K2" s="536"/>
-      <c r="L2" s="536"/>
+      <c r="B2" s="537"/>
+      <c r="C2" s="537"/>
+      <c r="D2" s="537"/>
+      <c r="E2" s="537"/>
+      <c r="F2" s="537"/>
+      <c r="G2" s="537"/>
+      <c r="H2" s="537"/>
+      <c r="I2" s="537"/>
+      <c r="J2" s="537"/>
+      <c r="K2" s="537"/>
+      <c r="L2" s="537"/>
     </row>
     <row r="3" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
@@ -7213,10 +7216,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="537" t="s">
+      <c r="I4" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="537"/>
+      <c r="J4" s="538"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -7237,13 +7240,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="538" t="s">
+      <c r="A5" s="539" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="539"/>
-      <c r="C5" s="539"/>
-      <c r="D5" s="539"/>
-      <c r="E5" s="539"/>
+      <c r="B5" s="540"/>
+      <c r="C5" s="540"/>
+      <c r="D5" s="540"/>
+      <c r="E5" s="540"/>
       <c r="F5" s="494"/>
       <c r="G5" s="494"/>
       <c r="H5" s="494"/>
@@ -7469,10 +7472,10 @@
   </sheetData>
   <autoFilter ref="A4:L7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5:K5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7483,10 +7486,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5:K5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7564,10 +7567,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="538"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -7585,20 +7588,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="548" t="s">
+      <c r="A2" s="549" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
-      <c r="L2" s="548"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
     </row>
     <row r="3" spans="1:15" s="86" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -7928,10 +7931,10 @@
   </sheetData>
   <autoFilter ref="A1:L10" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A4" sqref="A4:E4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7942,10 +7945,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8021,10 +8024,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="538"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8043,20 +8046,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="548" t="s">
+      <c r="A2" s="549" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
-      <c r="L2" s="548"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
     </row>
     <row r="3" spans="1:16" s="85" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
@@ -8285,7 +8288,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="85" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="85" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
         <v>18</v>
       </c>
@@ -8400,10 +8403,10 @@
   </sheetData>
   <autoFilter ref="A1:L9" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8414,10 +8417,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8494,10 +8497,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="538"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -8515,20 +8518,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="548" t="s">
+      <c r="A2" s="549" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
-      <c r="L2" s="548"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="329" t="s">
@@ -8670,10 +8673,10 @@
   </sheetData>
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8684,10 +8687,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8736,34 +8739,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="554" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
-      <c r="K1" s="553"/>
+      <c r="B1" s="554"/>
+      <c r="C1" s="554"/>
+      <c r="D1" s="554"/>
+      <c r="E1" s="554"/>
+      <c r="F1" s="554"/>
+      <c r="G1" s="554"/>
+      <c r="H1" s="554"/>
+      <c r="I1" s="554"/>
+      <c r="J1" s="554"/>
+      <c r="K1" s="554"/>
     </row>
     <row r="2" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="554" t="s">
+      <c r="A2" s="555" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="554"/>
-      <c r="C2" s="554"/>
-      <c r="D2" s="554"/>
-      <c r="E2" s="554"/>
-      <c r="F2" s="554"/>
-      <c r="G2" s="554"/>
-      <c r="H2" s="554"/>
-      <c r="I2" s="554"/>
-      <c r="J2" s="554"/>
-      <c r="K2" s="554"/>
+      <c r="B2" s="555"/>
+      <c r="C2" s="555"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="555"/>
+      <c r="F2" s="555"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
+      <c r="K2" s="555"/>
     </row>
     <row r="3" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="412"/>
@@ -8800,10 +8803,10 @@
       <c r="G4" s="411" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="537" t="s">
+      <c r="H4" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="537"/>
+      <c r="I4" s="538"/>
       <c r="J4" s="533" t="s">
         <v>2</v>
       </c>
@@ -8812,19 +8815,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="551" t="s">
+      <c r="A5" s="552" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="551"/>
-      <c r="C5" s="551"/>
-      <c r="D5" s="551"/>
-      <c r="E5" s="551"/>
-      <c r="F5" s="551"/>
-      <c r="G5" s="551"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="551"/>
-      <c r="K5" s="551"/>
+      <c r="B5" s="552"/>
+      <c r="C5" s="552"/>
+      <c r="D5" s="552"/>
+      <c r="E5" s="552"/>
+      <c r="F5" s="552"/>
+      <c r="G5" s="552"/>
+      <c r="H5" s="552"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="552"/>
     </row>
     <row r="6" spans="1:11" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="458" t="s">
@@ -9026,19 +9029,19 @@
       <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="551" t="s">
+      <c r="A12" s="552" t="s">
         <v>1195</v>
       </c>
-      <c r="B12" s="551"/>
-      <c r="C12" s="551"/>
-      <c r="D12" s="551"/>
-      <c r="E12" s="551"/>
-      <c r="F12" s="551"/>
-      <c r="G12" s="551"/>
-      <c r="H12" s="551"/>
-      <c r="I12" s="551"/>
-      <c r="J12" s="551"/>
-      <c r="K12" s="551"/>
+      <c r="B12" s="552"/>
+      <c r="C12" s="552"/>
+      <c r="D12" s="552"/>
+      <c r="E12" s="552"/>
+      <c r="F12" s="552"/>
+      <c r="G12" s="552"/>
+      <c r="H12" s="552"/>
+      <c r="I12" s="552"/>
+      <c r="J12" s="552"/>
+      <c r="K12" s="552"/>
     </row>
     <row r="13" spans="1:11" s="129" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="458" t="s">
@@ -9361,19 +9364,19 @@
       <c r="K21" s="131"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="551" t="s">
+      <c r="A22" s="552" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="551"/>
-      <c r="C22" s="551"/>
-      <c r="D22" s="551"/>
-      <c r="E22" s="551"/>
-      <c r="F22" s="551"/>
-      <c r="G22" s="551"/>
-      <c r="H22" s="551"/>
-      <c r="I22" s="551"/>
-      <c r="J22" s="551"/>
-      <c r="K22" s="551"/>
+      <c r="B22" s="552"/>
+      <c r="C22" s="552"/>
+      <c r="D22" s="552"/>
+      <c r="E22" s="552"/>
+      <c r="F22" s="552"/>
+      <c r="G22" s="552"/>
+      <c r="H22" s="552"/>
+      <c r="I22" s="552"/>
+      <c r="J22" s="552"/>
+      <c r="K22" s="552"/>
     </row>
     <row r="23" spans="1:11" s="129" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="458" t="s">
@@ -9583,19 +9586,19 @@
       <c r="K28" s="131"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="552" t="s">
+      <c r="A29" s="553" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="552"/>
-      <c r="C29" s="552"/>
-      <c r="D29" s="552"/>
-      <c r="E29" s="552"/>
-      <c r="F29" s="552"/>
-      <c r="G29" s="552"/>
-      <c r="H29" s="552"/>
-      <c r="I29" s="552"/>
-      <c r="J29" s="552"/>
-      <c r="K29" s="552"/>
+      <c r="B29" s="553"/>
+      <c r="C29" s="553"/>
+      <c r="D29" s="553"/>
+      <c r="E29" s="553"/>
+      <c r="F29" s="553"/>
+      <c r="G29" s="553"/>
+      <c r="H29" s="553"/>
+      <c r="I29" s="553"/>
+      <c r="J29" s="553"/>
+      <c r="K29" s="553"/>
     </row>
     <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="130"/>
@@ -10808,10 +10811,10 @@
   </sheetData>
   <autoFilter ref="A4:K30" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -10822,10 +10825,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -10860,7 +10863,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -10877,35 +10880,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="549" t="s">
+      <c r="A1" s="550" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="549"/>
-      <c r="C1" s="549"/>
-      <c r="D1" s="549"/>
-      <c r="E1" s="549"/>
-      <c r="F1" s="549"/>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
-      <c r="K1" s="549"/>
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="551" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
       <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10944,10 +10947,10 @@
       <c r="G4" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="540" t="s">
+      <c r="H4" s="541" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="540"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="532" t="s">
         <v>2</v>
       </c>
@@ -10956,19 +10959,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="551" t="s">
+      <c r="A5" s="552" t="s">
         <v>1195</v>
       </c>
-      <c r="B5" s="551"/>
-      <c r="C5" s="551"/>
-      <c r="D5" s="551"/>
-      <c r="E5" s="551"/>
-      <c r="F5" s="551"/>
-      <c r="G5" s="551"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="551"/>
-      <c r="K5" s="551"/>
+      <c r="B5" s="552"/>
+      <c r="C5" s="552"/>
+      <c r="D5" s="552"/>
+      <c r="E5" s="552"/>
+      <c r="F5" s="552"/>
+      <c r="G5" s="552"/>
+      <c r="H5" s="552"/>
+      <c r="I5" s="552"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="552"/>
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -11093,10 +11096,10 @@
   </sheetData>
   <autoFilter ref="A4:K8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -11107,10 +11110,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -11165,36 +11168,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="549" t="s">
+      <c r="A1" s="550" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="549"/>
-      <c r="C1" s="549"/>
-      <c r="D1" s="549"/>
-      <c r="E1" s="549"/>
-      <c r="F1" s="549"/>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
-      <c r="K1" s="549"/>
-      <c r="L1" s="549"/>
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="551" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="550"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -11235,10 +11238,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="537" t="s">
+      <c r="I4" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="537"/>
+      <c r="J4" s="538"/>
       <c r="K4" s="61" t="s">
         <v>2</v>
       </c>
@@ -11256,20 +11259,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="543" t="s">
+      <c r="A5" s="544" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="543"/>
-      <c r="C5" s="543"/>
-      <c r="D5" s="543"/>
-      <c r="E5" s="543"/>
-      <c r="F5" s="543"/>
-      <c r="G5" s="543"/>
-      <c r="H5" s="543"/>
-      <c r="I5" s="543"/>
-      <c r="J5" s="543"/>
-      <c r="K5" s="543"/>
-      <c r="L5" s="543"/>
+      <c r="B5" s="544"/>
+      <c r="C5" s="544"/>
+      <c r="D5" s="544"/>
+      <c r="E5" s="544"/>
+      <c r="F5" s="544"/>
+      <c r="G5" s="544"/>
+      <c r="H5" s="544"/>
+      <c r="I5" s="544"/>
+      <c r="J5" s="544"/>
+      <c r="K5" s="544"/>
+      <c r="L5" s="544"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
@@ -12774,10 +12777,10 @@
   </sheetData>
   <autoFilter ref="A4:L37" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="F10" sqref="F10"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -12788,10 +12791,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="F10" sqref="F10"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -12870,10 +12873,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="537" t="s">
+      <c r="H1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="537"/>
+      <c r="I1" s="538"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -12891,19 +12894,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="544" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="543"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
+      <c r="K2" s="544"/>
       <c r="N2" s="166"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -13193,10 +13196,10 @@
   </sheetData>
   <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -13207,10 +13210,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -13285,10 +13288,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="537" t="s">
+      <c r="H1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="537"/>
+      <c r="I1" s="538"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -13306,19 +13309,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="544" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="543"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
+      <c r="K2" s="544"/>
       <c r="L2" s="392"/>
     </row>
     <row r="3" spans="1:14" s="126" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -14319,10 +14322,10 @@
   </sheetData>
   <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -14333,10 +14336,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -14409,10 +14412,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="537" t="s">
+      <c r="H1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="537"/>
+      <c r="I1" s="538"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -14431,19 +14434,19 @@
       <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="544" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="543"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
+      <c r="K2" s="544"/>
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -17828,10 +17831,10 @@
   </sheetData>
   <autoFilter ref="A1:K75" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
+      <selection activeCell="A39" sqref="A39"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -17842,10 +17845,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
-      <selection activeCell="A39" sqref="A39"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -17898,35 +17901,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="549" t="s">
+      <c r="A1" s="550" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="549"/>
-      <c r="C1" s="549"/>
-      <c r="D1" s="549"/>
-      <c r="E1" s="549"/>
-      <c r="F1" s="549"/>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
-      <c r="K1" s="549"/>
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
       <c r="N1" s="421"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="551" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
       <c r="N2" s="421"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17965,10 +17968,10 @@
       <c r="G4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="537" t="s">
+      <c r="H4" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="537"/>
+      <c r="I4" s="538"/>
       <c r="J4" s="73" t="s">
         <v>2</v>
       </c>
@@ -17986,19 +17989,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="548" t="s">
+      <c r="A5" s="549" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
-      <c r="D5" s="548"/>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="548"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="549"/>
+      <c r="K5" s="549"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="284" t="s">
@@ -18536,10 +18539,10 @@
   </sheetData>
   <autoFilter ref="A4:K17" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
+      <selection activeCell="B6" sqref="B6:L6"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18550,10 +18553,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
-      <selection activeCell="B6" sqref="B6:L6"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18630,10 +18633,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="540" t="s">
+      <c r="I1" s="541" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="540"/>
+      <c r="J1" s="541"/>
       <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
@@ -18651,20 +18654,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="542" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
-      <c r="G2" s="541"/>
-      <c r="H2" s="541"/>
-      <c r="I2" s="541"/>
-      <c r="J2" s="541"/>
-      <c r="K2" s="541"/>
-      <c r="L2" s="541"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -18827,10 +18830,10 @@
   </sheetData>
   <autoFilter ref="A1:L5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="L3" sqref="L3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18841,10 +18844,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="L3" sqref="L3"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18921,10 +18924,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="538"/>
       <c r="K1" s="73" t="s">
         <v>2</v>
       </c>
@@ -18943,20 +18946,20 @@
       <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="548" t="s">
+      <c r="A2" s="549" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
-      <c r="L2" s="548"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
+      <c r="L2" s="549"/>
       <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -19161,10 +19164,10 @@
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="I34" sqref="I34"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19175,10 +19178,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="I34" sqref="I34"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19251,10 +19254,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="537" t="s">
+      <c r="H1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="537"/>
+      <c r="I1" s="538"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19273,19 +19276,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="548" t="s">
+      <c r="A2" s="549" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
       <c r="L2" s="421" t="s">
         <v>1243</v>
       </c>
@@ -19410,10 +19413,10 @@
   </sheetData>
   <autoFilter ref="A1:K5" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19424,10 +19427,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19500,10 +19503,10 @@
       <c r="G1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="537" t="s">
+      <c r="H1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="537"/>
+      <c r="I1" s="538"/>
       <c r="J1" s="73" t="s">
         <v>2</v>
       </c>
@@ -19522,19 +19525,19 @@
       <c r="O1" s="88"/>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="548" t="s">
+      <c r="A2" s="549" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="548"/>
-      <c r="C2" s="548"/>
-      <c r="D2" s="548"/>
-      <c r="E2" s="548"/>
-      <c r="F2" s="548"/>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
-      <c r="K2" s="548"/>
+      <c r="B2" s="549"/>
+      <c r="C2" s="549"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="549"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="297" t="s">
@@ -19723,10 +19726,10 @@
   </sheetData>
   <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19737,10 +19740,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19865,7 +19868,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
+      <selection activeCell="D15" sqref="D14:D15"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -19880,8 +19884,7 @@
         <oddFooter>&amp;R&amp;"Arial,Italic"&amp;8&amp;Z&amp;F</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
-      <selection activeCell="D15" sqref="D14:D15"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
@@ -19956,10 +19959,10 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="540" t="s">
+      <c r="I1" s="541" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="540"/>
+      <c r="J1" s="541"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -19977,20 +19980,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="A2" s="543" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
+      <c r="L2" s="543"/>
       <c r="O2" s="166"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.2">
@@ -21118,10 +21121,10 @@
   </sheetData>
   <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="B37" sqref="B37"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -21132,10 +21135,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="B37" sqref="B37"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -21212,10 +21215,10 @@
       <c r="H1" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="538"/>
       <c r="K1" s="61" t="s">
         <v>2</v>
       </c>
@@ -21234,20 +21237,20 @@
       <c r="P1" s="89"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="544" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="543"/>
-      <c r="F2" s="543"/>
-      <c r="G2" s="543"/>
-      <c r="H2" s="543"/>
-      <c r="I2" s="543"/>
-      <c r="J2" s="543"/>
-      <c r="K2" s="543"/>
-      <c r="L2" s="543"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="544"/>
+      <c r="H2" s="544"/>
+      <c r="I2" s="544"/>
+      <c r="J2" s="544"/>
+      <c r="K2" s="544"/>
+      <c r="L2" s="544"/>
     </row>
     <row r="3" spans="1:16" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
@@ -22665,10 +22668,10 @@
   </sheetData>
   <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -22679,10 +22682,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -22759,10 +22762,10 @@
       <c r="H1" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="537" t="s">
+      <c r="I1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="537"/>
+      <c r="J1" s="538"/>
       <c r="K1" s="163" t="s">
         <v>2</v>
       </c>
@@ -22780,20 +22783,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="544" t="s">
+      <c r="A2" s="545" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="544"/>
-      <c r="C2" s="544"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="544"/>
-      <c r="F2" s="544"/>
-      <c r="G2" s="544"/>
-      <c r="H2" s="544"/>
-      <c r="I2" s="544"/>
-      <c r="J2" s="544"/>
-      <c r="K2" s="544"/>
-      <c r="L2" s="544"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="545"/>
+      <c r="I2" s="545"/>
+      <c r="J2" s="545"/>
+      <c r="K2" s="545"/>
+      <c r="L2" s="545"/>
       <c r="M2" s="241"/>
       <c r="N2" s="241"/>
       <c r="O2" s="241"/>
@@ -24932,10 +24935,10 @@
   </sheetData>
   <autoFilter ref="A1:L47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -24947,10 +24950,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -24981,7 +24984,7 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -25023,10 +25026,10 @@
       <c r="G1" s="65" t="s">
         <v>1215</v>
       </c>
-      <c r="H1" s="537" t="s">
+      <c r="H1" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="537"/>
+      <c r="I1" s="538"/>
       <c r="J1" s="61" t="s">
         <v>2</v>
       </c>
@@ -25041,19 +25044,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="545" t="s">
+      <c r="A2" s="546" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="546"/>
-      <c r="C2" s="546"/>
-      <c r="D2" s="546"/>
-      <c r="E2" s="546"/>
-      <c r="F2" s="546"/>
-      <c r="G2" s="546"/>
-      <c r="H2" s="546"/>
-      <c r="I2" s="546"/>
-      <c r="J2" s="546"/>
-      <c r="K2" s="547"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="547"/>
+      <c r="I2" s="547"/>
+      <c r="J2" s="547"/>
+      <c r="K2" s="548"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="327" t="s">
@@ -26109,10 +26112,10 @@
   </sheetData>
   <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
+      <selection activeCell="C21" sqref="C21"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26123,10 +26126,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
-      <selection activeCell="C21" sqref="C21"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26154,10 +26157,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26171,11 +26174,12 @@
     <col min="7" max="10" width="19.5703125" style="40" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="10" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="42" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="13" max="13" width="19.140625" style="487" customWidth="1"/>
+    <col min="14" max="14" width="42" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -26200,35 +26204,41 @@
       <c r="H1" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="540" t="s">
+      <c r="I1" s="541" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="540"/>
+      <c r="J1" s="541"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="542" t="s">
+      <c r="M1" s="162" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" s="167" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="543" t="s">
         <v>885</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="542"/>
-      <c r="F2" s="542"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="543"/>
+      <c r="F2" s="543"/>
+      <c r="G2" s="543"/>
+      <c r="H2" s="543"/>
+      <c r="I2" s="543"/>
+      <c r="J2" s="543"/>
+      <c r="K2" s="543"/>
+      <c r="L2" s="543"/>
+      <c r="M2" s="535"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
         <v>886</v>
       </c>
@@ -26261,8 +26271,9 @@
       </c>
       <c r="K3" s="139"/>
       <c r="L3" s="139"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="M3" s="324"/>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
         <v>6</v>
       </c>
@@ -26297,8 +26308,9 @@
       </c>
       <c r="K4" s="139"/>
       <c r="L4" s="139"/>
-    </row>
-    <row r="5" spans="1:13" s="322" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="M4" s="324"/>
+    </row>
+    <row r="5" spans="1:14" s="322" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="424" t="s">
         <v>939</v>
       </c>
@@ -26335,11 +26347,12 @@
         <v>1053</v>
       </c>
       <c r="L5" s="328"/>
-      <c r="M5" s="434" t="s">
+      <c r="M5" s="324"/>
+      <c r="N5" s="434" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>310</v>
       </c>
@@ -26361,7 +26374,7 @@
         <v>13493186.662333779</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="30" t="s">
         <v>332</v>
       </c>
@@ -26386,10 +26399,10 @@
   </sheetData>
   <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26400,10 +26413,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26456,36 +26469,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="549" t="s">
+      <c r="A1" s="550" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="549"/>
-      <c r="C1" s="549"/>
-      <c r="D1" s="549"/>
-      <c r="E1" s="549"/>
-      <c r="F1" s="549"/>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
-      <c r="K1" s="549"/>
-      <c r="L1" s="549"/>
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="551" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="550"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -26526,10 +26539,10 @@
       <c r="H4" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="537" t="s">
+      <c r="I4" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="537"/>
+      <c r="J4" s="538"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -26547,20 +26560,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="548" t="s">
+      <c r="A5" s="549" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
-      <c r="D5" s="548"/>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="548"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="549"/>
+      <c r="K5" s="549"/>
+      <c r="L5" s="549"/>
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="368"/>
@@ -28096,10 +28109,10 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C25" sqref="C25"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -28110,10 +28123,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -28168,36 +28181,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="549" t="s">
+      <c r="A1" s="550" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="549"/>
-      <c r="C1" s="549"/>
-      <c r="D1" s="549"/>
-      <c r="E1" s="549"/>
-      <c r="F1" s="549"/>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
-      <c r="K1" s="549"/>
-      <c r="L1" s="549"/>
+      <c r="B1" s="550"/>
+      <c r="C1" s="550"/>
+      <c r="D1" s="550"/>
+      <c r="E1" s="550"/>
+      <c r="F1" s="550"/>
+      <c r="G1" s="550"/>
+      <c r="H1" s="550"/>
+      <c r="I1" s="550"/>
+      <c r="J1" s="550"/>
+      <c r="K1" s="550"/>
+      <c r="L1" s="550"/>
     </row>
     <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="551" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="550"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
+      <c r="K2" s="551"/>
+      <c r="L2" s="551"/>
     </row>
     <row r="3" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151"/>
@@ -28238,10 +28251,10 @@
       <c r="H4" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="537" t="s">
+      <c r="I4" s="538" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="537"/>
+      <c r="J4" s="538"/>
       <c r="K4" s="73" t="s">
         <v>2</v>
       </c>
@@ -28259,20 +28272,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="19" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="548" t="s">
+      <c r="A5" s="549" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
-      <c r="D5" s="548"/>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="548"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="549"/>
+      <c r="K5" s="549"/>
+      <c r="L5" s="549"/>
     </row>
     <row r="6" spans="1:15" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="174" t="s">

--- a/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
+++ b/projlist/2040 Project List_Consolidated draft with AQ (ORIGINAL).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\GitHub\RTP\projlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FA0D8-03AE-47E9-AA6A-D0D9A472060A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EB61F-9161-4C69-82CA-0AE223F085A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="742" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="3210" windowWidth="29040" windowHeight="15840" tabRatio="742" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto Constrained - Arterial Lin" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Auto Illustrative - New Collect" sheetId="24" r:id="rId9"/>
     <sheet name="Auto Illustrative - Art Cap" sheetId="10" r:id="rId10"/>
     <sheet name="Auto Illustrative - Added Freew" sheetId="9" r:id="rId11"/>
-    <sheet name="Auto Illustrative - Urban Stds" sheetId="11" r:id="rId12"/>
+    <sheet name="Auto Illustrative - Urban Stnds" sheetId="11" r:id="rId12"/>
     <sheet name="Transit Constrained" sheetId="12" r:id="rId13"/>
     <sheet name="Transit Illustrative" sheetId="13" r:id="rId14"/>
     <sheet name="Bike Constrained - woutRd" sheetId="14" r:id="rId15"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$4:$L$37</definedName>
@@ -71,7 +71,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Auto Illustrative - Art Cap'!$A$1:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Auto Illustrative - New Arteria'!$A$1:$O$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Auto Illustrative - New Collect'!$A$1:$O$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'Auto Illustrative - Urban Stds'!$A$1:$P$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'Auto Illustrative - Urban Stnds'!$A$1:$P$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'Bike Constrained - onstreet w'!$A$1:$N$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'Bike Constrained - onstreet wou'!$A$1:$N$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'Bike Constrained - woutRd'!$A$1:$O$39</definedName>
@@ -93,7 +93,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'Auto Illustrative - Art Cap'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'Auto Illustrative - New Arteria'!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'Auto Illustrative - New Collect'!$4:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'Auto Illustrative - Urban Stds'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'Auto Illustrative - Urban Stnds'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'Bike Constrained - onstreet w'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'Bike Constrained - onstreet wou'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="14">'Bike Constrained - woutRd'!$4:$4</definedName>
@@ -116,7 +116,7 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$6</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$2</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$2</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$2</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$2</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$75</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.FilterData" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$4:$L$37</definedName>
@@ -138,7 +138,7 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$10</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$9</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$11</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$7</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$7</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$79</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintArea" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$1:$L$39</definedName>
@@ -160,7 +160,7 @@
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$4:$4</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$4:$4</definedName>
-    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$1:$1</definedName>
+    <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$1:$1</definedName>
     <definedName name="Z_5B5A346C_618F_49AC_9181_F5E0B5D30CFD_.wvu.PrintTitles" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$4:$4</definedName>
@@ -182,7 +182,7 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$6</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$2</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$2</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$2</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$2</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$75</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.FilterData" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$4:$L$37</definedName>
@@ -204,7 +204,7 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$10</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$9</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$11</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$7</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$7</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$79</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintArea" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$1:$L$39</definedName>
@@ -226,7 +226,7 @@
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$4:$4</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$4:$4</definedName>
-    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$1:$1</definedName>
+    <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$1:$1</definedName>
     <definedName name="Z_7C423F7C_6103_4542_A65F_815D7082BC2E_.wvu.PrintTitles" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$4:$4</definedName>
@@ -248,7 +248,7 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$6</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$2</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$2</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$2</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$2</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$75</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.FilterData" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$4:$L$37</definedName>
@@ -270,7 +270,7 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$A$1:$L$10</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$A$1:$L$9</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$A$1:$L$11</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$A$1:$L$7</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$A$1:$L$7</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$A$1:$K$29</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$A$1:$K$79</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintArea" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$A$1:$L$39</definedName>
@@ -292,7 +292,7 @@
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="9" hidden="1">'Auto Illustrative - Art Cap'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="7" hidden="1">'Auto Illustrative - New Arteria'!$4:$4</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="8" hidden="1">'Auto Illustrative - New Collect'!$4:$4</definedName>
-    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stds'!$1:$1</definedName>
+    <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="11" hidden="1">'Auto Illustrative - Urban Stnds'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="16" hidden="1">'Bike Constrained - onstreet w'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="17" hidden="1">'Bike Constrained - onstreet wou'!$1:$1</definedName>
     <definedName name="Z_E02D8BBA_373C_430A_B0C6_EFAFB65B79B1_.wvu.PrintTitles" localSheetId="14" hidden="1">'Bike Constrained - woutRd'!$4:$4</definedName>
@@ -306,9 +306,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="THOMPSON Paul E - Personal View" guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" tabRatio="742" activeSheetId="1"/>
+    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
     <customWorkbookView name="Lane County - Personal View" guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="705" tabRatio="742" activeSheetId="5"/>
-    <customWorkbookView name="CLARKE Kelly A - Personal View" guid="{5B5A346C-618F-49AC-9181-F5E0B5D30CFD}" mergeInterval="0" personalView="1" xWindow="77" yWindow="23" windowWidth="1705" windowHeight="855" tabRatio="742" activeSheetId="1"/>
-    <customWorkbookView name="THOMPSON Paul E - Personal View" guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" tabRatio="742" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -7472,10 +7472,10 @@
   </sheetData>
   <autoFilter ref="A4:L7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5:K5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7486,10 +7486,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="71" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="71" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5:K5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7931,10 +7931,10 @@
   </sheetData>
   <autoFilter ref="A1:L10" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -7945,10 +7945,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A4" sqref="A4:E4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="47" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8403,10 +8403,10 @@
   </sheetData>
   <autoFilter ref="A1:L9" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8417,10 +8417,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="46" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8450,8 +8450,8 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8673,10 +8673,10 @@
   </sheetData>
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -8687,10 +8687,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="70" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="39" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -10811,10 +10811,10 @@
   </sheetData>
   <autoFilter ref="A4:K30" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -10825,10 +10825,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="72" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="72" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:K1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -11096,10 +11096,10 @@
   </sheetData>
   <autoFilter ref="A4:K8" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -11110,10 +11110,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:J1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -12777,10 +12777,10 @@
   </sheetData>
   <autoFilter ref="A4:L37" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="F10" sqref="F10"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -12791,10 +12791,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="F10" sqref="F10"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="89" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -13196,10 +13196,10 @@
   </sheetData>
   <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -13210,10 +13210,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -14322,10 +14322,10 @@
   </sheetData>
   <autoFilter ref="A1:K29" xr:uid="{00000000-0009-0000-0000-000010000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
-      <selection activeCell="E24" sqref="E24"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -14336,10 +14336,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A16">
+      <selection activeCell="E24" sqref="E24"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -17831,10 +17831,10 @@
   </sheetData>
   <autoFilter ref="A1:K75" xr:uid="{00000000-0009-0000-0000-000011000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
-      <selection activeCell="A39" sqref="A39"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -17845,10 +17845,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A49">
+      <selection activeCell="A39" sqref="A39"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18539,10 +18539,10 @@
   </sheetData>
   <autoFilter ref="A4:K17" xr:uid="{00000000-0009-0000-0000-000012000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
-      <selection activeCell="B6" sqref="B6:L6"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18553,10 +18553,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="B1">
+      <selection activeCell="B6" sqref="B6:L6"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18830,10 +18830,10 @@
   </sheetData>
   <autoFilter ref="A1:L5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="L3" sqref="L3"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -18844,10 +18844,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="L3" sqref="L3"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="48" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19164,10 +19164,10 @@
   </sheetData>
   <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0000-000013000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="I34" sqref="I34"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19178,10 +19178,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="73" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="73" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="I34" sqref="I34"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19413,10 +19413,10 @@
   </sheetData>
   <autoFilter ref="A1:K5" xr:uid="{00000000-0009-0000-0000-000014000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D17" sqref="D17"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19427,10 +19427,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D17" sqref="D17"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19726,10 +19726,10 @@
   </sheetData>
   <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19740,10 +19740,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="90" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -19868,8 +19868,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
-      <selection activeCell="D15" sqref="D14:D15"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -19884,7 +19883,8 @@
         <oddFooter>&amp;R&amp;"Arial,Italic"&amp;8&amp;Z&amp;F</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}">
+      <selection activeCell="D15" sqref="D14:D15"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
@@ -21121,10 +21121,10 @@
   </sheetData>
   <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="B37" sqref="B37"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -21135,10 +21135,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="50" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="B37" sqref="B37"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -22668,10 +22668,10 @@
   </sheetData>
   <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -22682,10 +22682,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -24935,10 +24935,10 @@
   </sheetData>
   <autoFilter ref="A1:L47" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C13" sqref="C13"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -24950,10 +24950,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26112,10 +26112,10 @@
   </sheetData>
   <autoFilter ref="A1:K28" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
-      <selection activeCell="C21" sqref="C21"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26126,10 +26126,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A4">
+      <selection activeCell="C21" sqref="C21"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26159,7 +26159,7 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -26399,10 +26399,10 @@
   </sheetData>
   <autoFilter ref="A1:L4" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -26413,10 +26413,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="80" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
       <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -28109,10 +28109,10 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
@@ -28123,10 +28123,10 @@
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{7C423F7C-6103-4542-A65F-815D7082BC2E}" scale="75" fitToPage="1" showAutoFilter="1">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{E02D8BBA-373C-430A-B0C6-EFAFB65B79B1}" scale="75" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="C25" sqref="C25"/>
       <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-      <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+      <pageSetup scale="52" fitToHeight="0" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:L1" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
